--- a/DataConfig/Datas/__enums__.xlsx
+++ b/DataConfig/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18165" windowHeight="6060"/>
+    <workbookView windowWidth="12840" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -115,7 +115,7 @@
     <t>周日</t>
   </si>
   <si>
-    <t>common_bubbleType</t>
+    <t>common.bubbleType</t>
   </si>
   <si>
     <t>Talk</t>
@@ -128,6 +128,33 @@
   </si>
   <si>
     <t>下单</t>
+  </si>
+  <si>
+    <t>food.rawType</t>
+  </si>
+  <si>
+    <t>SeaFood</t>
+  </si>
+  <si>
+    <t>海鲜</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>肉</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>蔬菜</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>其他</t>
   </si>
 </sst>
 </file>
@@ -1090,10 +1117,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1307,6 +1334,47 @@
         <v>2</v>
       </c>
     </row>
+    <row r="13" spans="2:8">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="7:8">
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="7:8">
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="7:8">
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>

--- a/DataConfig/Datas/__enums__.xlsx
+++ b/DataConfig/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12840" windowHeight="6720"/>
+    <workbookView windowWidth="20610" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="129">
   <si>
     <t>##var</t>
   </si>
@@ -130,31 +130,277 @@
     <t>下单</t>
   </si>
   <si>
-    <t>food.rawType</t>
-  </si>
-  <si>
-    <t>SeaFood</t>
+    <t>food.materialType</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>肉类</t>
+  </si>
+  <si>
+    <t>Seafood</t>
   </si>
   <si>
     <t>海鲜</t>
   </si>
   <si>
-    <t>Meat</t>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>蔬菜</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>food.makeMenuType</t>
+  </si>
+  <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>炒锅</t>
+  </si>
+  <si>
+    <t>Boil</t>
+  </si>
+  <si>
+    <t>煮锅</t>
+  </si>
+  <si>
+    <t>Fry</t>
+  </si>
+  <si>
+    <t>炸锅</t>
+  </si>
+  <si>
+    <t>Steam</t>
+  </si>
+  <si>
+    <t>蒸锅</t>
+  </si>
+  <si>
+    <t>Barbecue</t>
+  </si>
+  <si>
+    <t>烤锅</t>
+  </si>
+  <si>
+    <t>food.flavorTag</t>
+  </si>
+  <si>
+    <t>Rou</t>
   </si>
   <si>
     <t>肉</t>
   </si>
   <si>
-    <t>Vegetable</t>
-  </si>
-  <si>
-    <t>蔬菜</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>其他</t>
+    <t>ShuiChan</t>
+  </si>
+  <si>
+    <t>水产</t>
+  </si>
+  <si>
+    <t>Su</t>
+  </si>
+  <si>
+    <t>素</t>
+  </si>
+  <si>
+    <t>ShiHui</t>
+  </si>
+  <si>
+    <t>实惠</t>
+  </si>
+  <si>
+    <t>AngGui</t>
+  </si>
+  <si>
+    <t>昂贵</t>
+  </si>
+  <si>
+    <t>JiaChang</t>
+  </si>
+  <si>
+    <t>家常</t>
+  </si>
+  <si>
+    <t>LiangCai</t>
+  </si>
+  <si>
+    <t>凉菜</t>
+  </si>
+  <si>
+    <t>LuZhiPing</t>
+  </si>
+  <si>
+    <t>卤制品</t>
+  </si>
+  <si>
+    <t>HunSu</t>
+  </si>
+  <si>
+    <t>荤素搭配</t>
+  </si>
+  <si>
+    <t>YeWei</t>
+  </si>
+  <si>
+    <t>野味</t>
+  </si>
+  <si>
+    <t>XiaoChao</t>
+  </si>
+  <si>
+    <t>小炒</t>
+  </si>
+  <si>
+    <t>ShaoKao</t>
+  </si>
+  <si>
+    <t>烧烤</t>
+  </si>
+  <si>
+    <t>ZhongYou</t>
+  </si>
+  <si>
+    <t>重油</t>
+  </si>
+  <si>
+    <t>TangGeng</t>
+  </si>
+  <si>
+    <t>汤羹</t>
+  </si>
+  <si>
+    <t>ReQi</t>
+  </si>
+  <si>
+    <t>热气</t>
+  </si>
+  <si>
+    <t>QingDan</t>
+  </si>
+  <si>
+    <t>清淡</t>
+  </si>
+  <si>
+    <t>Suan</t>
+  </si>
+  <si>
+    <t>酸</t>
+  </si>
+  <si>
+    <t>Tian</t>
+  </si>
+  <si>
+    <t>甜</t>
+  </si>
+  <si>
+    <t>Ku</t>
+  </si>
+  <si>
+    <t>苦</t>
+  </si>
+  <si>
+    <t>La</t>
+  </si>
+  <si>
+    <t>辣</t>
+  </si>
+  <si>
+    <t>XianWei</t>
+  </si>
+  <si>
+    <t>咸</t>
+  </si>
+  <si>
+    <t>Xian</t>
+  </si>
+  <si>
+    <t>鲜</t>
+  </si>
+  <si>
+    <t>Chou</t>
+  </si>
+  <si>
+    <t>臭</t>
+  </si>
+  <si>
+    <t>BaoFu</t>
+  </si>
+  <si>
+    <t>饱腹</t>
+  </si>
+  <si>
+    <t>XiaoQiao</t>
+  </si>
+  <si>
+    <t>小巧</t>
+  </si>
+  <si>
+    <t>QingLiang</t>
+  </si>
+  <si>
+    <t>清凉</t>
+  </si>
+  <si>
+    <t>NuanWei</t>
+  </si>
+  <si>
+    <t>暖胃</t>
+  </si>
+  <si>
+    <t>TangZui</t>
+  </si>
+  <si>
+    <t>烫嘴</t>
+  </si>
+  <si>
+    <t>BingShuang</t>
+  </si>
+  <si>
+    <t>冰爽</t>
+  </si>
+  <si>
+    <t>XiangSu</t>
+  </si>
+  <si>
+    <t>香酥</t>
+  </si>
+  <si>
+    <t>JianFei</t>
+  </si>
+  <si>
+    <t>减肥</t>
+  </si>
+  <si>
+    <t>Nen</t>
+  </si>
+  <si>
+    <t>嫩</t>
+  </si>
+  <si>
+    <t>Lao</t>
+  </si>
+  <si>
+    <t>老</t>
+  </si>
+  <si>
+    <t>RuanLan</t>
+  </si>
+  <si>
+    <t>软烂</t>
+  </si>
+  <si>
+    <t>KaiWei</t>
+  </si>
+  <si>
+    <t>开胃</t>
   </si>
 </sst>
 </file>
@@ -167,13 +413,26 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -643,10 +902,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,37 +914,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,98 +947,104 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -797,6 +1056,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1117,10 +1382,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1131,7 +1396,7 @@
     <col min="5" max="5" width="9.375" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="5.25" customWidth="1"/>
+    <col min="8" max="8" width="7.875" customWidth="1"/>
     <col min="9" max="9" width="12.125" customWidth="1"/>
     <col min="10" max="10" width="15.125" customWidth="1"/>
   </cols>
@@ -1334,8 +1599,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
-      <c r="B13" t="s">
+    <row r="13" spans="2:9">
+      <c r="B13" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C13" t="b">
@@ -1344,35 +1609,505 @@
       <c r="D13" t="b">
         <v>1</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="7:8">
-      <c r="G14" t="s">
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="7:9">
+      <c r="G14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="7:8">
-      <c r="G15" t="s">
+      <c r="I14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="7:9">
+      <c r="G15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="7:8">
-      <c r="G16" t="s">
+      <c r="I15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="7:9">
+      <c r="G16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="4" t="s">
         <v>46</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9">
+      <c r="G18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9">
+      <c r="G19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9">
+      <c r="G20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9">
+      <c r="G21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="23" spans="7:9">
+      <c r="G23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="24" spans="7:9">
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="25" spans="7:9">
+      <c r="G25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="26" spans="7:9">
+      <c r="G26" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="27" spans="7:9">
+      <c r="G27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="28" spans="7:9">
+      <c r="G28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="29" spans="7:9">
+      <c r="G29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="30" spans="7:9">
+      <c r="G30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="31" spans="7:9">
+      <c r="G31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="32" spans="7:9">
+      <c r="G32" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9">
+      <c r="G33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9">
+      <c r="G34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" t="s">
+        <v>84</v>
+      </c>
+      <c r="I34">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9">
+      <c r="G35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" t="s">
+        <v>86</v>
+      </c>
+      <c r="I35">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="36" spans="7:9">
+      <c r="G36" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="37" spans="7:9">
+      <c r="G37" t="s">
+        <v>89</v>
+      </c>
+      <c r="H37" t="s">
+        <v>90</v>
+      </c>
+      <c r="I37">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="38" spans="7:9">
+      <c r="G38" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" t="s">
+        <v>92</v>
+      </c>
+      <c r="I38">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="39" spans="7:9">
+      <c r="G39" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="40" spans="7:9">
+      <c r="G40" t="s">
+        <v>95</v>
+      </c>
+      <c r="H40" t="s">
+        <v>96</v>
+      </c>
+      <c r="I40">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="41" spans="7:9">
+      <c r="G41" t="s">
+        <v>97</v>
+      </c>
+      <c r="H41" t="s">
+        <v>98</v>
+      </c>
+      <c r="I41">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="42" spans="7:9">
+      <c r="G42" t="s">
+        <v>99</v>
+      </c>
+      <c r="H42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I42">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="43" spans="7:9">
+      <c r="G43" t="s">
+        <v>101</v>
+      </c>
+      <c r="H43" t="s">
+        <v>102</v>
+      </c>
+      <c r="I43">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="44" spans="7:9">
+      <c r="G44" t="s">
+        <v>103</v>
+      </c>
+      <c r="H44" t="s">
+        <v>104</v>
+      </c>
+      <c r="I44">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="45" spans="7:9">
+      <c r="G45" t="s">
+        <v>105</v>
+      </c>
+      <c r="H45" t="s">
+        <v>106</v>
+      </c>
+      <c r="I45">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="46" spans="7:9">
+      <c r="G46" t="s">
+        <v>107</v>
+      </c>
+      <c r="H46" t="s">
+        <v>108</v>
+      </c>
+      <c r="I46">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="47" spans="7:9">
+      <c r="G47" t="s">
+        <v>109</v>
+      </c>
+      <c r="H47" t="s">
+        <v>110</v>
+      </c>
+      <c r="I47">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="48" spans="7:9">
+      <c r="G48" t="s">
+        <v>111</v>
+      </c>
+      <c r="H48" t="s">
+        <v>112</v>
+      </c>
+      <c r="I48">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="49" spans="7:9">
+      <c r="G49" t="s">
+        <v>113</v>
+      </c>
+      <c r="H49" t="s">
+        <v>114</v>
+      </c>
+      <c r="I49">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="50" spans="7:9">
+      <c r="G50" t="s">
+        <v>115</v>
+      </c>
+      <c r="H50" t="s">
+        <v>116</v>
+      </c>
+      <c r="I50">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="51" spans="7:9">
+      <c r="G51" t="s">
+        <v>117</v>
+      </c>
+      <c r="H51" t="s">
+        <v>118</v>
+      </c>
+      <c r="I51">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="52" spans="7:9">
+      <c r="G52" t="s">
+        <v>119</v>
+      </c>
+      <c r="H52" t="s">
+        <v>120</v>
+      </c>
+      <c r="I52">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="53" spans="7:9">
+      <c r="G53" t="s">
+        <v>121</v>
+      </c>
+      <c r="H53" t="s">
+        <v>122</v>
+      </c>
+      <c r="I53">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="54" spans="7:9">
+      <c r="G54" t="s">
+        <v>123</v>
+      </c>
+      <c r="H54" t="s">
+        <v>124</v>
+      </c>
+      <c r="I54">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="55" spans="7:9">
+      <c r="G55" t="s">
+        <v>125</v>
+      </c>
+      <c r="H55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I55">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="56" spans="7:9">
+      <c r="G56" t="s">
+        <v>127</v>
+      </c>
+      <c r="H56" t="s">
+        <v>128</v>
+      </c>
+      <c r="I56">
+        <v>1035</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Datas/__enums__.xlsx
+++ b/DataConfig/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20610" windowHeight="13140"/>
+    <workbookView windowWidth="20955" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="136">
   <si>
     <t>##var</t>
   </si>
@@ -128,6 +128,27 @@
   </si>
   <si>
     <t>下单</t>
+  </si>
+  <si>
+    <t>item.itemType</t>
+  </si>
+  <si>
+    <t>FoodMaterial</t>
+  </si>
+  <si>
+    <t>食材</t>
+  </si>
+  <si>
+    <t>Receipt</t>
+  </si>
+  <si>
+    <t>菜谱</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>货币</t>
   </si>
   <si>
     <t>food.materialType</t>
@@ -424,14 +445,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="微软雅黑 Light"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF202124"/>
-      <name val="Arial"/>
+      <name val="微软雅黑 Light"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1044,17 +1064,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1382,731 +1411,777 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="9.375" customWidth="1"/>
-    <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="7.875" customWidth="1"/>
-    <col min="9" max="9" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="99" customHeight="1" spans="1:11">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="1"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="b">
+      <c r="C4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="b">
+      <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="7:9">
-      <c r="G5" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="7:9">
-      <c r="G6" t="s">
+      <c r="G6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="7:9">
-      <c r="G7" t="s">
+      <c r="G7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="7:9">
-      <c r="G8" t="s">
+      <c r="G8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="7:9">
-      <c r="G9" t="s">
+      <c r="G9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="7:9">
-      <c r="G10" t="s">
+      <c r="G10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C11" t="b">
+      <c r="C11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D11" t="b">
+      <c r="D11" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="7:9">
-      <c r="G12" t="s">
+      <c r="G12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="b">
+      <c r="C13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D13" t="b">
+      <c r="D13" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="7:9">
-      <c r="G14" s="4" t="s">
+    <row r="14" spans="2:9">
+      <c r="B14" s="7"/>
+      <c r="G14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="7:9">
-      <c r="G15" s="4" t="s">
+    <row r="15" spans="2:9">
+      <c r="B15" s="7"/>
+      <c r="G15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="7:9">
-      <c r="G16" s="4" t="s">
+    <row r="16" spans="2:9">
+      <c r="B16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="C16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I16">
+      <c r="H16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9">
+      <c r="G17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9">
+      <c r="G18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9">
+      <c r="G19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="b">
+    <row r="20" spans="2:9">
+      <c r="B20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D17" t="b">
+      <c r="D20" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17">
+      <c r="G20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="7:9">
-      <c r="G18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18">
+    <row r="21" spans="7:9">
+      <c r="G21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="7:9">
-      <c r="G19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19">
+    <row r="22" spans="7:9">
+      <c r="G22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="7:9">
-      <c r="G20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20">
+    <row r="23" spans="7:9">
+      <c r="G23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="7:9">
-      <c r="G21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21">
+    <row r="24" spans="7:9">
+      <c r="G24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" t="b">
+    <row r="25" spans="2:9">
+      <c r="B25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D22" t="b">
+      <c r="D25" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G22" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22">
+      <c r="G25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="1">
         <v>1001</v>
       </c>
     </row>
-    <row r="23" spans="7:9">
-      <c r="G23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" t="s">
-        <v>62</v>
-      </c>
-      <c r="I23">
+    <row r="26" spans="7:9">
+      <c r="G26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I26" s="1">
         <v>1002</v>
       </c>
     </row>
-    <row r="24" spans="7:9">
-      <c r="G24" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24">
+    <row r="27" spans="7:9">
+      <c r="G27" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27" s="1">
         <v>1003</v>
       </c>
     </row>
-    <row r="25" spans="7:9">
-      <c r="G25" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25">
+    <row r="28" spans="7:9">
+      <c r="G28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="1">
         <v>1004</v>
       </c>
     </row>
-    <row r="26" spans="7:9">
-      <c r="G26" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" t="s">
-        <v>68</v>
-      </c>
-      <c r="I26">
+    <row r="29" spans="7:9">
+      <c r="G29" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29" s="1">
         <v>1005</v>
       </c>
     </row>
-    <row r="27" spans="7:9">
-      <c r="G27" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27">
+    <row r="30" spans="7:9">
+      <c r="G30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" s="1">
         <v>1006</v>
       </c>
     </row>
-    <row r="28" spans="7:9">
-      <c r="G28" t="s">
-        <v>71</v>
-      </c>
-      <c r="H28" t="s">
-        <v>72</v>
-      </c>
-      <c r="I28">
+    <row r="31" spans="7:9">
+      <c r="G31" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" s="1">
         <v>1007</v>
       </c>
     </row>
-    <row r="29" spans="7:9">
-      <c r="G29" t="s">
-        <v>73</v>
-      </c>
-      <c r="H29" t="s">
-        <v>74</v>
-      </c>
-      <c r="I29">
+    <row r="32" spans="7:9">
+      <c r="G32" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32" s="1">
         <v>1008</v>
       </c>
     </row>
-    <row r="30" spans="7:9">
-      <c r="G30" t="s">
-        <v>75</v>
-      </c>
-      <c r="H30" t="s">
-        <v>76</v>
-      </c>
-      <c r="I30">
+    <row r="33" spans="7:9">
+      <c r="G33" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33" s="1">
         <v>1009</v>
       </c>
     </row>
-    <row r="31" spans="7:9">
-      <c r="G31" t="s">
-        <v>77</v>
-      </c>
-      <c r="H31" t="s">
-        <v>78</v>
-      </c>
-      <c r="I31">
+    <row r="34" spans="7:9">
+      <c r="G34" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" s="1">
         <v>1010</v>
       </c>
     </row>
-    <row r="32" spans="7:9">
-      <c r="G32" t="s">
-        <v>79</v>
-      </c>
-      <c r="H32" t="s">
-        <v>80</v>
-      </c>
-      <c r="I32">
+    <row r="35" spans="7:9">
+      <c r="G35" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I35" s="1">
         <v>1011</v>
       </c>
     </row>
-    <row r="33" spans="7:9">
-      <c r="G33" t="s">
-        <v>81</v>
-      </c>
-      <c r="H33" t="s">
-        <v>82</v>
-      </c>
-      <c r="I33">
+    <row r="36" spans="7:9">
+      <c r="G36" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I36" s="1">
         <v>1012</v>
       </c>
     </row>
-    <row r="34" spans="7:9">
-      <c r="G34" t="s">
-        <v>83</v>
-      </c>
-      <c r="H34" t="s">
-        <v>84</v>
-      </c>
-      <c r="I34">
+    <row r="37" spans="7:9">
+      <c r="G37" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I37" s="1">
         <v>1013</v>
       </c>
     </row>
-    <row r="35" spans="7:9">
-      <c r="G35" t="s">
-        <v>85</v>
-      </c>
-      <c r="H35" t="s">
-        <v>86</v>
-      </c>
-      <c r="I35">
+    <row r="38" spans="7:9">
+      <c r="G38" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I38" s="1">
         <v>1014</v>
       </c>
     </row>
-    <row r="36" spans="7:9">
-      <c r="G36" t="s">
-        <v>87</v>
-      </c>
-      <c r="H36" t="s">
-        <v>88</v>
-      </c>
-      <c r="I36">
+    <row r="39" spans="7:9">
+      <c r="G39" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I39" s="1">
         <v>1015</v>
       </c>
     </row>
-    <row r="37" spans="7:9">
-      <c r="G37" t="s">
-        <v>89</v>
-      </c>
-      <c r="H37" t="s">
-        <v>90</v>
-      </c>
-      <c r="I37">
+    <row r="40" spans="7:9">
+      <c r="G40" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40" s="1">
         <v>1016</v>
       </c>
     </row>
-    <row r="38" spans="7:9">
-      <c r="G38" t="s">
-        <v>91</v>
-      </c>
-      <c r="H38" t="s">
-        <v>92</v>
-      </c>
-      <c r="I38">
+    <row r="41" spans="7:9">
+      <c r="G41" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I41" s="1">
         <v>1017</v>
       </c>
     </row>
-    <row r="39" spans="7:9">
-      <c r="G39" t="s">
-        <v>93</v>
-      </c>
-      <c r="H39" t="s">
-        <v>94</v>
-      </c>
-      <c r="I39">
+    <row r="42" spans="7:9">
+      <c r="G42" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I42" s="1">
         <v>1018</v>
       </c>
     </row>
-    <row r="40" spans="7:9">
-      <c r="G40" t="s">
-        <v>95</v>
-      </c>
-      <c r="H40" t="s">
-        <v>96</v>
-      </c>
-      <c r="I40">
+    <row r="43" spans="7:9">
+      <c r="G43" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I43" s="1">
         <v>1019</v>
       </c>
     </row>
-    <row r="41" spans="7:9">
-      <c r="G41" t="s">
-        <v>97</v>
-      </c>
-      <c r="H41" t="s">
-        <v>98</v>
-      </c>
-      <c r="I41">
+    <row r="44" spans="7:9">
+      <c r="G44" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I44" s="1">
         <v>1020</v>
       </c>
     </row>
-    <row r="42" spans="7:9">
-      <c r="G42" t="s">
-        <v>99</v>
-      </c>
-      <c r="H42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I42">
+    <row r="45" spans="7:9">
+      <c r="G45" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I45" s="1">
         <v>1021</v>
       </c>
     </row>
-    <row r="43" spans="7:9">
-      <c r="G43" t="s">
-        <v>101</v>
-      </c>
-      <c r="H43" t="s">
-        <v>102</v>
-      </c>
-      <c r="I43">
+    <row r="46" spans="7:9">
+      <c r="G46" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I46" s="1">
         <v>1022</v>
       </c>
     </row>
-    <row r="44" spans="7:9">
-      <c r="G44" t="s">
-        <v>103</v>
-      </c>
-      <c r="H44" t="s">
-        <v>104</v>
-      </c>
-      <c r="I44">
+    <row r="47" spans="7:9">
+      <c r="G47" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I47" s="1">
         <v>1023</v>
       </c>
     </row>
-    <row r="45" spans="7:9">
-      <c r="G45" t="s">
-        <v>105</v>
-      </c>
-      <c r="H45" t="s">
-        <v>106</v>
-      </c>
-      <c r="I45">
+    <row r="48" spans="7:9">
+      <c r="G48" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I48" s="1">
         <v>1024</v>
       </c>
     </row>
-    <row r="46" spans="7:9">
-      <c r="G46" t="s">
-        <v>107</v>
-      </c>
-      <c r="H46" t="s">
-        <v>108</v>
-      </c>
-      <c r="I46">
+    <row r="49" spans="7:9">
+      <c r="G49" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I49" s="1">
         <v>1025</v>
       </c>
     </row>
-    <row r="47" spans="7:9">
-      <c r="G47" t="s">
-        <v>109</v>
-      </c>
-      <c r="H47" t="s">
-        <v>110</v>
-      </c>
-      <c r="I47">
+    <row r="50" spans="7:9">
+      <c r="G50" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I50" s="1">
         <v>1026</v>
       </c>
     </row>
-    <row r="48" spans="7:9">
-      <c r="G48" t="s">
-        <v>111</v>
-      </c>
-      <c r="H48" t="s">
-        <v>112</v>
-      </c>
-      <c r="I48">
+    <row r="51" spans="7:9">
+      <c r="G51" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I51" s="1">
         <v>1027</v>
       </c>
     </row>
-    <row r="49" spans="7:9">
-      <c r="G49" t="s">
-        <v>113</v>
-      </c>
-      <c r="H49" t="s">
-        <v>114</v>
-      </c>
-      <c r="I49">
+    <row r="52" spans="7:9">
+      <c r="G52" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I52" s="1">
         <v>1028</v>
       </c>
     </row>
-    <row r="50" spans="7:9">
-      <c r="G50" t="s">
-        <v>115</v>
-      </c>
-      <c r="H50" t="s">
-        <v>116</v>
-      </c>
-      <c r="I50">
+    <row r="53" spans="7:9">
+      <c r="G53" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I53" s="1">
         <v>1029</v>
       </c>
     </row>
-    <row r="51" spans="7:9">
-      <c r="G51" t="s">
-        <v>117</v>
-      </c>
-      <c r="H51" t="s">
-        <v>118</v>
-      </c>
-      <c r="I51">
+    <row r="54" spans="7:9">
+      <c r="G54" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I54" s="1">
         <v>1030</v>
       </c>
     </row>
-    <row r="52" spans="7:9">
-      <c r="G52" t="s">
-        <v>119</v>
-      </c>
-      <c r="H52" t="s">
-        <v>120</v>
-      </c>
-      <c r="I52">
+    <row r="55" spans="7:9">
+      <c r="G55" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I55" s="1">
         <v>1031</v>
       </c>
     </row>
-    <row r="53" spans="7:9">
-      <c r="G53" t="s">
-        <v>121</v>
-      </c>
-      <c r="H53" t="s">
-        <v>122</v>
-      </c>
-      <c r="I53">
+    <row r="56" spans="7:9">
+      <c r="G56" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I56" s="1">
         <v>1032</v>
       </c>
     </row>
-    <row r="54" spans="7:9">
-      <c r="G54" t="s">
-        <v>123</v>
-      </c>
-      <c r="H54" t="s">
-        <v>124</v>
-      </c>
-      <c r="I54">
+    <row r="57" spans="7:9">
+      <c r="G57" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I57" s="1">
         <v>1033</v>
       </c>
     </row>
-    <row r="55" spans="7:9">
-      <c r="G55" t="s">
-        <v>125</v>
-      </c>
-      <c r="H55" t="s">
-        <v>126</v>
-      </c>
-      <c r="I55">
+    <row r="58" spans="7:9">
+      <c r="G58" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I58" s="1">
         <v>1034</v>
       </c>
     </row>
-    <row r="56" spans="7:9">
-      <c r="G56" t="s">
-        <v>127</v>
-      </c>
-      <c r="H56" t="s">
-        <v>128</v>
-      </c>
-      <c r="I56">
+    <row r="59" spans="7:9">
+      <c r="G59" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I59" s="1">
         <v>1035</v>
       </c>
     </row>

--- a/DataConfig/Datas/__enums__.xlsx
+++ b/DataConfig/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20955" windowHeight="13140"/>
+    <workbookView windowWidth="30075" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
     <t>其它</t>
   </si>
   <si>
-    <t>food.makeMenuType</t>
+    <t>food.cookTools</t>
   </si>
   <si>
     <t>Cook</t>
@@ -1064,7 +1064,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1078,16 +1078,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1414,7 +1405,7 @@
   <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1454,20 +1445,20 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1491,14 +1482,14 @@
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1511,10 +1502,10 @@
       <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="1" t="b">
@@ -1523,10 +1514,10 @@
       <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="1">
@@ -1534,10 +1525,10 @@
       </c>
     </row>
     <row r="5" spans="7:9">
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="1">
@@ -1545,10 +1536,10 @@
       </c>
     </row>
     <row r="6" spans="7:9">
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="1">
@@ -1556,10 +1547,10 @@
       </c>
     </row>
     <row r="7" spans="7:9">
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I7" s="1">
@@ -1567,10 +1558,10 @@
       </c>
     </row>
     <row r="8" spans="7:9">
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I8" s="1">
@@ -1578,10 +1569,10 @@
       </c>
     </row>
     <row r="9" spans="7:9">
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I9" s="1">
@@ -1589,10 +1580,10 @@
       </c>
     </row>
     <row r="10" spans="7:9">
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I10" s="1">
@@ -1600,7 +1591,7 @@
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="1" t="b">
@@ -1609,10 +1600,10 @@
       <c r="D11" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I11" s="1">
@@ -1620,10 +1611,10 @@
       </c>
     </row>
     <row r="12" spans="7:9">
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I12" s="1">
@@ -1631,7 +1622,7 @@
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="1" t="b">
@@ -1640,34 +1631,32 @@
       <c r="D13" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="7"/>
-      <c r="G14" s="7" t="s">
+    <row r="14" spans="7:9">
+      <c r="G14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I14" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="7"/>
-      <c r="G15" s="7" t="s">
+    <row r="15" spans="7:9">
+      <c r="G15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I15" s="1">
@@ -1675,7 +1664,7 @@
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="1" t="b">
@@ -1684,10 +1673,10 @@
       <c r="D16" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="1" t="s">
         <v>47</v>
       </c>
       <c r="I16" s="1">
@@ -1695,10 +1684,10 @@
       </c>
     </row>
     <row r="17" spans="7:9">
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I17" s="1">
@@ -1706,10 +1695,10 @@
       </c>
     </row>
     <row r="18" spans="7:9">
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I18" s="1">
@@ -1717,10 +1706,10 @@
       </c>
     </row>
     <row r="19" spans="7:9">
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="1" t="s">
         <v>53</v>
       </c>
       <c r="I19" s="1">
@@ -1728,7 +1717,7 @@
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="1" t="b">
@@ -1737,10 +1726,10 @@
       <c r="D20" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I20" s="1">
@@ -1748,10 +1737,10 @@
       </c>
     </row>
     <row r="21" spans="7:9">
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="1" t="s">
         <v>58</v>
       </c>
       <c r="I21" s="1">
@@ -1759,10 +1748,10 @@
       </c>
     </row>
     <row r="22" spans="7:9">
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I22" s="1">
@@ -1770,10 +1759,10 @@
       </c>
     </row>
     <row r="23" spans="7:9">
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I23" s="1">
@@ -1781,10 +1770,10 @@
       </c>
     </row>
     <row r="24" spans="7:9">
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I24" s="1">
@@ -1792,7 +1781,7 @@
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C25" s="1" t="b">
@@ -1801,10 +1790,10 @@
       <c r="D25" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="1" t="s">
         <v>67</v>
       </c>
       <c r="I25" s="1">
@@ -1812,10 +1801,10 @@
       </c>
     </row>
     <row r="26" spans="7:9">
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="1" t="s">
         <v>69</v>
       </c>
       <c r="I26" s="1">
@@ -1823,10 +1812,10 @@
       </c>
     </row>
     <row r="27" spans="7:9">
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I27" s="1">
@@ -1834,10 +1823,10 @@
       </c>
     </row>
     <row r="28" spans="7:9">
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="1" t="s">
         <v>73</v>
       </c>
       <c r="I28" s="1">
@@ -1845,10 +1834,10 @@
       </c>
     </row>
     <row r="29" spans="7:9">
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="1" t="s">
         <v>75</v>
       </c>
       <c r="I29" s="1">
@@ -1856,10 +1845,10 @@
       </c>
     </row>
     <row r="30" spans="7:9">
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="1" t="s">
         <v>77</v>
       </c>
       <c r="I30" s="1">
@@ -1867,10 +1856,10 @@
       </c>
     </row>
     <row r="31" spans="7:9">
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="1" t="s">
         <v>79</v>
       </c>
       <c r="I31" s="1">
@@ -1878,10 +1867,10 @@
       </c>
     </row>
     <row r="32" spans="7:9">
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="1" t="s">
         <v>81</v>
       </c>
       <c r="I32" s="1">
@@ -1889,10 +1878,10 @@
       </c>
     </row>
     <row r="33" spans="7:9">
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="1" t="s">
         <v>83</v>
       </c>
       <c r="I33" s="1">
@@ -1900,10 +1889,10 @@
       </c>
     </row>
     <row r="34" spans="7:9">
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I34" s="1">
@@ -1911,10 +1900,10 @@
       </c>
     </row>
     <row r="35" spans="7:9">
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="1" t="s">
         <v>87</v>
       </c>
       <c r="I35" s="1">
@@ -1922,10 +1911,10 @@
       </c>
     </row>
     <row r="36" spans="7:9">
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="1" t="s">
         <v>89</v>
       </c>
       <c r="I36" s="1">
@@ -1933,10 +1922,10 @@
       </c>
     </row>
     <row r="37" spans="7:9">
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I37" s="1">
@@ -1944,10 +1933,10 @@
       </c>
     </row>
     <row r="38" spans="7:9">
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="1" t="s">
         <v>93</v>
       </c>
       <c r="I38" s="1">
@@ -1955,10 +1944,10 @@
       </c>
     </row>
     <row r="39" spans="7:9">
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="1" t="s">
         <v>95</v>
       </c>
       <c r="I39" s="1">
@@ -1966,10 +1955,10 @@
       </c>
     </row>
     <row r="40" spans="7:9">
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="1" t="s">
         <v>97</v>
       </c>
       <c r="I40" s="1">
@@ -1977,10 +1966,10 @@
       </c>
     </row>
     <row r="41" spans="7:9">
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I41" s="1">
@@ -1988,10 +1977,10 @@
       </c>
     </row>
     <row r="42" spans="7:9">
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="1" t="s">
         <v>101</v>
       </c>
       <c r="I42" s="1">
@@ -1999,10 +1988,10 @@
       </c>
     </row>
     <row r="43" spans="7:9">
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="1" t="s">
         <v>103</v>
       </c>
       <c r="I43" s="1">
@@ -2010,10 +1999,10 @@
       </c>
     </row>
     <row r="44" spans="7:9">
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="1" t="s">
         <v>105</v>
       </c>
       <c r="I44" s="1">
@@ -2021,10 +2010,10 @@
       </c>
     </row>
     <row r="45" spans="7:9">
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="1" t="s">
         <v>107</v>
       </c>
       <c r="I45" s="1">
@@ -2032,10 +2021,10 @@
       </c>
     </row>
     <row r="46" spans="7:9">
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="1" t="s">
         <v>109</v>
       </c>
       <c r="I46" s="1">
@@ -2043,10 +2032,10 @@
       </c>
     </row>
     <row r="47" spans="7:9">
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="1" t="s">
         <v>111</v>
       </c>
       <c r="I47" s="1">
@@ -2054,10 +2043,10 @@
       </c>
     </row>
     <row r="48" spans="7:9">
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="1" t="s">
         <v>113</v>
       </c>
       <c r="I48" s="1">
@@ -2065,10 +2054,10 @@
       </c>
     </row>
     <row r="49" spans="7:9">
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H49" s="1" t="s">
         <v>115</v>
       </c>
       <c r="I49" s="1">
@@ -2076,10 +2065,10 @@
       </c>
     </row>
     <row r="50" spans="7:9">
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H50" s="1" t="s">
         <v>117</v>
       </c>
       <c r="I50" s="1">
@@ -2087,10 +2076,10 @@
       </c>
     </row>
     <row r="51" spans="7:9">
-      <c r="G51" s="7" t="s">
+      <c r="G51" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="H51" s="1" t="s">
         <v>119</v>
       </c>
       <c r="I51" s="1">
@@ -2098,10 +2087,10 @@
       </c>
     </row>
     <row r="52" spans="7:9">
-      <c r="G52" s="7" t="s">
+      <c r="G52" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H52" s="1" t="s">
         <v>121</v>
       </c>
       <c r="I52" s="1">
@@ -2109,10 +2098,10 @@
       </c>
     </row>
     <row r="53" spans="7:9">
-      <c r="G53" s="7" t="s">
+      <c r="G53" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H53" s="1" t="s">
         <v>123</v>
       </c>
       <c r="I53" s="1">
@@ -2120,10 +2109,10 @@
       </c>
     </row>
     <row r="54" spans="7:9">
-      <c r="G54" s="7" t="s">
+      <c r="G54" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H54" s="1" t="s">
         <v>125</v>
       </c>
       <c r="I54" s="1">
@@ -2131,10 +2120,10 @@
       </c>
     </row>
     <row r="55" spans="7:9">
-      <c r="G55" s="7" t="s">
+      <c r="G55" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="H55" s="1" t="s">
         <v>127</v>
       </c>
       <c r="I55" s="1">
@@ -2142,10 +2131,10 @@
       </c>
     </row>
     <row r="56" spans="7:9">
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H56" s="1" t="s">
         <v>129</v>
       </c>
       <c r="I56" s="1">
@@ -2153,10 +2142,10 @@
       </c>
     </row>
     <row r="57" spans="7:9">
-      <c r="G57" s="7" t="s">
+      <c r="G57" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H57" s="1" t="s">
         <v>131</v>
       </c>
       <c r="I57" s="1">
@@ -2164,10 +2153,10 @@
       </c>
     </row>
     <row r="58" spans="7:9">
-      <c r="G58" s="7" t="s">
+      <c r="G58" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H58" s="1" t="s">
         <v>133</v>
       </c>
       <c r="I58" s="1">
@@ -2175,10 +2164,10 @@
       </c>
     </row>
     <row r="59" spans="7:9">
-      <c r="G59" s="7" t="s">
+      <c r="G59" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H59" s="1" t="s">
         <v>135</v>
       </c>
       <c r="I59" s="1">

--- a/DataConfig/Datas/__enums__.xlsx
+++ b/DataConfig/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30075" windowHeight="13140"/>
+    <workbookView windowHeight="17370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="143">
   <si>
     <t>##var</t>
   </si>
@@ -209,6 +209,27 @@
   </si>
   <si>
     <t>烤锅</t>
+  </si>
+  <si>
+    <t>food.cookDifficulty</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>简单</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>困难</t>
   </si>
   <si>
     <t>food.flavorTag</t>
@@ -1402,10 +1423,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1797,7 +1818,7 @@
         <v>67</v>
       </c>
       <c r="I25" s="1">
-        <v>1001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="7:9">
@@ -1808,7 +1829,7 @@
         <v>69</v>
       </c>
       <c r="I26" s="1">
-        <v>1002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="7:9">
@@ -1819,358 +1840,400 @@
         <v>71</v>
       </c>
       <c r="I27" s="1">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="28" spans="7:9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="G28" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I28" s="1">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="29" spans="7:9">
       <c r="G29" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I29" s="1">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="30" spans="7:9">
       <c r="G30" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I30" s="1">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="31" spans="7:9">
       <c r="G31" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I31" s="1">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="32" spans="7:9">
       <c r="G32" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I32" s="1">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="33" spans="7:9">
       <c r="G33" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I33" s="1">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="34" spans="7:9">
       <c r="G34" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I34" s="1">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="35" spans="7:9">
       <c r="G35" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I35" s="1">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="36" spans="7:9">
       <c r="G36" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I36" s="1">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="37" spans="7:9">
       <c r="G37" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I37" s="1">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="38" spans="7:9">
       <c r="G38" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I38" s="1">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="39" spans="7:9">
       <c r="G39" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I39" s="1">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="40" spans="7:9">
       <c r="G40" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I40" s="1">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="41" spans="7:9">
       <c r="G41" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I41" s="1">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="42" spans="7:9">
       <c r="G42" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I42" s="1">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="43" spans="7:9">
       <c r="G43" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I43" s="1">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="44" spans="7:9">
       <c r="G44" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I44" s="1">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="45" spans="7:9">
       <c r="G45" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I45" s="1">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="46" spans="7:9">
       <c r="G46" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I46" s="1">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="47" spans="7:9">
       <c r="G47" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I47" s="1">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="48" spans="7:9">
       <c r="G48" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I48" s="1">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="49" spans="7:9">
       <c r="G49" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I49" s="1">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="50" spans="7:9">
       <c r="G50" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I50" s="1">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="51" spans="7:9">
       <c r="G51" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I51" s="1">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="52" spans="7:9">
       <c r="G52" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I52" s="1">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="53" spans="7:9">
       <c r="G53" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I53" s="1">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="54" spans="7:9">
       <c r="G54" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I54" s="1">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="55" spans="7:9">
       <c r="G55" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I55" s="1">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="56" spans="7:9">
       <c r="G56" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I56" s="1">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="57" spans="7:9">
       <c r="G57" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I57" s="1">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="58" spans="7:9">
       <c r="G58" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I58" s="1">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="59" spans="7:9">
       <c r="G59" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I59" s="1">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="60" spans="7:9">
+      <c r="G60" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="61" spans="7:9">
+      <c r="G61" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="62" spans="7:9">
+      <c r="G62" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I62" s="1">
         <v>1035</v>
       </c>
     </row>

--- a/DataConfig/Datas/__enums__.xlsx
+++ b/DataConfig/Datas/__enums__.xlsx
@@ -1425,8 +1425,8 @@
   <sheetPr/>
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/DataConfig/Datas/__enums__.xlsx
+++ b/DataConfig/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17370"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="145">
   <si>
     <t>##var</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>下单</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>评论</t>
   </si>
   <si>
     <t>item.itemType</t>
@@ -1423,10 +1429,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1642,27 +1648,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="7:9">
+      <c r="G13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="1" t="b">
+      <c r="H13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D13" s="1" t="b">
+      <c r="D14" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="7:9">
       <c r="G14" s="1" t="s">
         <v>41</v>
       </c>
@@ -1670,7 +1676,7 @@
         <v>42</v>
       </c>
       <c r="I14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="7:9">
@@ -1681,30 +1687,30 @@
         <v>44</v>
       </c>
       <c r="I15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="7:9">
+      <c r="G16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="1" t="b">
+    <row r="17" spans="2:9">
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D16" s="1" t="b">
+      <c r="D17" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="7:9">
       <c r="G17" s="1" t="s">
         <v>48</v>
       </c>
@@ -1712,7 +1718,7 @@
         <v>49</v>
       </c>
       <c r="I17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="7:9">
@@ -1723,7 +1729,7 @@
         <v>51</v>
       </c>
       <c r="I18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="7:9">
@@ -1734,49 +1740,49 @@
         <v>53</v>
       </c>
       <c r="I19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9">
+      <c r="G20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="1" t="b">
+    <row r="21" spans="2:9">
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D20" s="1" t="b">
+      <c r="D21" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="7:9">
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>58</v>
       </c>
       <c r="I21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="7:9">
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="5" t="s">
         <v>59</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="7:9">
@@ -1787,7 +1793,7 @@
         <v>62</v>
       </c>
       <c r="I23" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="7:9">
@@ -1798,30 +1804,30 @@
         <v>64</v>
       </c>
       <c r="I24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="7:9">
+      <c r="G25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="1" t="b">
+    <row r="26" spans="2:9">
+      <c r="B26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D25" s="1" t="b">
+      <c r="D26" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="7:9">
       <c r="G26" s="1" t="s">
         <v>68</v>
       </c>
@@ -1829,7 +1835,7 @@
         <v>69</v>
       </c>
       <c r="I26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="7:9">
@@ -1840,30 +1846,30 @@
         <v>71</v>
       </c>
       <c r="I27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="7:9">
+      <c r="G28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="1" t="b">
+    <row r="29" spans="2:9">
+      <c r="B29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D28" s="1" t="b">
+      <c r="D29" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I28" s="1">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="29" spans="7:9">
       <c r="G29" s="1" t="s">
         <v>75</v>
       </c>
@@ -1871,7 +1877,7 @@
         <v>76</v>
       </c>
       <c r="I29" s="1">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="30" spans="7:9">
@@ -1882,7 +1888,7 @@
         <v>78</v>
       </c>
       <c r="I30" s="1">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="31" spans="7:9">
@@ -1893,7 +1899,7 @@
         <v>80</v>
       </c>
       <c r="I31" s="1">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="32" spans="7:9">
@@ -1904,7 +1910,7 @@
         <v>82</v>
       </c>
       <c r="I32" s="1">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="33" spans="7:9">
@@ -1915,7 +1921,7 @@
         <v>84</v>
       </c>
       <c r="I33" s="1">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="34" spans="7:9">
@@ -1926,7 +1932,7 @@
         <v>86</v>
       </c>
       <c r="I34" s="1">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="35" spans="7:9">
@@ -1937,7 +1943,7 @@
         <v>88</v>
       </c>
       <c r="I35" s="1">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="36" spans="7:9">
@@ -1948,7 +1954,7 @@
         <v>90</v>
       </c>
       <c r="I36" s="1">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="37" spans="7:9">
@@ -1959,7 +1965,7 @@
         <v>92</v>
       </c>
       <c r="I37" s="1">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="38" spans="7:9">
@@ -1970,7 +1976,7 @@
         <v>94</v>
       </c>
       <c r="I38" s="1">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="39" spans="7:9">
@@ -1981,7 +1987,7 @@
         <v>96</v>
       </c>
       <c r="I39" s="1">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="40" spans="7:9">
@@ -1992,7 +1998,7 @@
         <v>98</v>
       </c>
       <c r="I40" s="1">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="41" spans="7:9">
@@ -2003,7 +2009,7 @@
         <v>100</v>
       </c>
       <c r="I41" s="1">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="42" spans="7:9">
@@ -2014,7 +2020,7 @@
         <v>102</v>
       </c>
       <c r="I42" s="1">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="43" spans="7:9">
@@ -2025,7 +2031,7 @@
         <v>104</v>
       </c>
       <c r="I43" s="1">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="44" spans="7:9">
@@ -2036,7 +2042,7 @@
         <v>106</v>
       </c>
       <c r="I44" s="1">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="45" spans="7:9">
@@ -2047,7 +2053,7 @@
         <v>108</v>
       </c>
       <c r="I45" s="1">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="46" spans="7:9">
@@ -2058,7 +2064,7 @@
         <v>110</v>
       </c>
       <c r="I46" s="1">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="47" spans="7:9">
@@ -2069,7 +2075,7 @@
         <v>112</v>
       </c>
       <c r="I47" s="1">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="48" spans="7:9">
@@ -2080,7 +2086,7 @@
         <v>114</v>
       </c>
       <c r="I48" s="1">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="49" spans="7:9">
@@ -2091,7 +2097,7 @@
         <v>116</v>
       </c>
       <c r="I49" s="1">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="50" spans="7:9">
@@ -2102,7 +2108,7 @@
         <v>118</v>
       </c>
       <c r="I50" s="1">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="51" spans="7:9">
@@ -2113,7 +2119,7 @@
         <v>120</v>
       </c>
       <c r="I51" s="1">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="52" spans="7:9">
@@ -2124,7 +2130,7 @@
         <v>122</v>
       </c>
       <c r="I52" s="1">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="53" spans="7:9">
@@ -2135,7 +2141,7 @@
         <v>124</v>
       </c>
       <c r="I53" s="1">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="54" spans="7:9">
@@ -2146,7 +2152,7 @@
         <v>126</v>
       </c>
       <c r="I54" s="1">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="55" spans="7:9">
@@ -2157,7 +2163,7 @@
         <v>128</v>
       </c>
       <c r="I55" s="1">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="56" spans="7:9">
@@ -2168,7 +2174,7 @@
         <v>130</v>
       </c>
       <c r="I56" s="1">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="57" spans="7:9">
@@ -2179,7 +2185,7 @@
         <v>132</v>
       </c>
       <c r="I57" s="1">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="58" spans="7:9">
@@ -2190,7 +2196,7 @@
         <v>134</v>
       </c>
       <c r="I58" s="1">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="59" spans="7:9">
@@ -2201,7 +2207,7 @@
         <v>136</v>
       </c>
       <c r="I59" s="1">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="60" spans="7:9">
@@ -2212,7 +2218,7 @@
         <v>138</v>
       </c>
       <c r="I60" s="1">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="61" spans="7:9">
@@ -2223,7 +2229,7 @@
         <v>140</v>
       </c>
       <c r="I61" s="1">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="62" spans="7:9">
@@ -2234,6 +2240,17 @@
         <v>142</v>
       </c>
       <c r="I62" s="1">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="63" spans="7:9">
+      <c r="G63" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I63" s="1">
         <v>1035</v>
       </c>
     </row>

--- a/DataConfig/Datas/__enums__.xlsx
+++ b/DataConfig/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="150">
   <si>
     <t>##var</t>
   </si>
@@ -449,6 +449,21 @@
   </si>
   <si>
     <t>开胃</t>
+  </si>
+  <si>
+    <t>food.qteTag</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>加盐</t>
+  </si>
+  <si>
+    <t>Vinegar</t>
+  </si>
+  <si>
+    <t>加醋</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1106,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1110,6 +1125,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1429,10 +1445,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2254,6 +2270,31 @@
         <v>1035</v>
       </c>
     </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I64" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="7:9">
+      <c r="G65" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I65" s="6">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>

--- a/DataConfig/Datas/__enums__.xlsx
+++ b/DataConfig/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="152">
   <si>
     <t>##var</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>下单</t>
+  </si>
+  <si>
+    <t>MainLine</t>
+  </si>
+  <si>
+    <t>主线</t>
   </si>
   <si>
     <t>Comment</t>
@@ -641,7 +647,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -651,6 +657,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,10 +976,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -976,16 +988,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -997,10 +1009,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1021,28 +1033,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1051,19 +1063,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1075,38 +1084,41 @@
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1121,6 +1133,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1445,10 +1460,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1633,69 +1648,90 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="1" t="b">
+      <c r="C11" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D11" s="1" t="b">
+      <c r="D11" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="7:9">
-      <c r="G12" s="1" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="7:9">
-      <c r="G13" s="1" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1" t="b">
+      <c r="H14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D14" s="1" t="b">
+      <c r="D15" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="7:9">
       <c r="G15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1703,7 +1739,7 @@
         <v>44</v>
       </c>
       <c r="I15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="7:9">
@@ -1714,30 +1750,30 @@
         <v>46</v>
       </c>
       <c r="I16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9">
+      <c r="G17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="1" t="b">
+    <row r="18" spans="2:9">
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D17" s="1" t="b">
+      <c r="D18" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="7:9">
       <c r="G18" s="1" t="s">
         <v>50</v>
       </c>
@@ -1745,7 +1781,7 @@
         <v>51</v>
       </c>
       <c r="I18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="7:9">
@@ -1756,7 +1792,7 @@
         <v>53</v>
       </c>
       <c r="I19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="7:9">
@@ -1767,49 +1803,49 @@
         <v>55</v>
       </c>
       <c r="I20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9">
+      <c r="G21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="1" t="b">
+    <row r="22" spans="2:9">
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D21" s="1" t="b">
+      <c r="D22" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="7:9">
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="7:9">
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="6" t="s">
         <v>61</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I23" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="7:9">
@@ -1820,7 +1856,7 @@
         <v>64</v>
       </c>
       <c r="I24" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="7:9">
@@ -1831,30 +1867,30 @@
         <v>66</v>
       </c>
       <c r="I25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="7:9">
+      <c r="G26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="1" t="b">
+    <row r="27" spans="2:9">
+      <c r="B27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D26" s="1" t="b">
+      <c r="D27" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="7:9">
       <c r="G27" s="1" t="s">
         <v>70</v>
       </c>
@@ -1862,7 +1898,7 @@
         <v>71</v>
       </c>
       <c r="I27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="7:9">
@@ -1873,30 +1909,30 @@
         <v>73</v>
       </c>
       <c r="I28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="7:9">
+      <c r="G29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="1" t="b">
+    <row r="30" spans="2:9">
+      <c r="B30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D29" s="1" t="b">
+      <c r="D30" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I29" s="1">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="30" spans="7:9">
       <c r="G30" s="1" t="s">
         <v>77</v>
       </c>
@@ -1904,7 +1940,7 @@
         <v>78</v>
       </c>
       <c r="I30" s="1">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="31" spans="7:9">
@@ -1915,7 +1951,7 @@
         <v>80</v>
       </c>
       <c r="I31" s="1">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="32" spans="7:9">
@@ -1926,7 +1962,7 @@
         <v>82</v>
       </c>
       <c r="I32" s="1">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="33" spans="7:9">
@@ -1937,7 +1973,7 @@
         <v>84</v>
       </c>
       <c r="I33" s="1">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="34" spans="7:9">
@@ -1948,7 +1984,7 @@
         <v>86</v>
       </c>
       <c r="I34" s="1">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="35" spans="7:9">
@@ -1959,7 +1995,7 @@
         <v>88</v>
       </c>
       <c r="I35" s="1">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="36" spans="7:9">
@@ -1970,7 +2006,7 @@
         <v>90</v>
       </c>
       <c r="I36" s="1">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="37" spans="7:9">
@@ -1981,7 +2017,7 @@
         <v>92</v>
       </c>
       <c r="I37" s="1">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="38" spans="7:9">
@@ -1992,7 +2028,7 @@
         <v>94</v>
       </c>
       <c r="I38" s="1">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="39" spans="7:9">
@@ -2003,7 +2039,7 @@
         <v>96</v>
       </c>
       <c r="I39" s="1">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="40" spans="7:9">
@@ -2014,7 +2050,7 @@
         <v>98</v>
       </c>
       <c r="I40" s="1">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="41" spans="7:9">
@@ -2025,7 +2061,7 @@
         <v>100</v>
       </c>
       <c r="I41" s="1">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="42" spans="7:9">
@@ -2036,7 +2072,7 @@
         <v>102</v>
       </c>
       <c r="I42" s="1">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="43" spans="7:9">
@@ -2047,7 +2083,7 @@
         <v>104</v>
       </c>
       <c r="I43" s="1">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="44" spans="7:9">
@@ -2058,7 +2094,7 @@
         <v>106</v>
       </c>
       <c r="I44" s="1">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="45" spans="7:9">
@@ -2069,7 +2105,7 @@
         <v>108</v>
       </c>
       <c r="I45" s="1">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="46" spans="7:9">
@@ -2080,7 +2116,7 @@
         <v>110</v>
       </c>
       <c r="I46" s="1">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="47" spans="7:9">
@@ -2091,7 +2127,7 @@
         <v>112</v>
       </c>
       <c r="I47" s="1">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="48" spans="7:9">
@@ -2102,7 +2138,7 @@
         <v>114</v>
       </c>
       <c r="I48" s="1">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="49" spans="7:9">
@@ -2113,7 +2149,7 @@
         <v>116</v>
       </c>
       <c r="I49" s="1">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="50" spans="7:9">
@@ -2124,7 +2160,7 @@
         <v>118</v>
       </c>
       <c r="I50" s="1">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="51" spans="7:9">
@@ -2135,7 +2171,7 @@
         <v>120</v>
       </c>
       <c r="I51" s="1">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="52" spans="7:9">
@@ -2146,7 +2182,7 @@
         <v>122</v>
       </c>
       <c r="I52" s="1">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="53" spans="7:9">
@@ -2157,7 +2193,7 @@
         <v>124</v>
       </c>
       <c r="I53" s="1">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="54" spans="7:9">
@@ -2168,7 +2204,7 @@
         <v>126</v>
       </c>
       <c r="I54" s="1">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="55" spans="7:9">
@@ -2179,7 +2215,7 @@
         <v>128</v>
       </c>
       <c r="I55" s="1">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="56" spans="7:9">
@@ -2190,7 +2226,7 @@
         <v>130</v>
       </c>
       <c r="I56" s="1">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="57" spans="7:9">
@@ -2201,7 +2237,7 @@
         <v>132</v>
       </c>
       <c r="I57" s="1">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="58" spans="7:9">
@@ -2212,7 +2248,7 @@
         <v>134</v>
       </c>
       <c r="I58" s="1">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="59" spans="7:9">
@@ -2223,7 +2259,7 @@
         <v>136</v>
       </c>
       <c r="I59" s="1">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="60" spans="7:9">
@@ -2234,7 +2270,7 @@
         <v>138</v>
       </c>
       <c r="I60" s="1">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="61" spans="7:9">
@@ -2245,7 +2281,7 @@
         <v>140</v>
       </c>
       <c r="I61" s="1">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="62" spans="7:9">
@@ -2256,7 +2292,7 @@
         <v>142</v>
       </c>
       <c r="I62" s="1">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="63" spans="7:9">
@@ -2267,31 +2303,42 @@
         <v>144</v>
       </c>
       <c r="I63" s="1">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="64" spans="7:9">
+      <c r="G64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I64" s="1">
         <v>1035</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
-      <c r="B64" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H64" s="1" t="s">
+    <row r="65" spans="2:9">
+      <c r="B65" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I64" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="7:9">
       <c r="G65" s="1" t="s">
         <v>148</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I65" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="7:9">
+      <c r="G66" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I66" s="7">
         <v>2</v>
       </c>
     </row>

--- a/DataConfig/Datas/__enums__.xlsx
+++ b/DataConfig/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="154">
   <si>
     <t>##var</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>周日</t>
+  </si>
+  <si>
+    <t>AllWeekDay</t>
+  </si>
+  <si>
+    <t>全部</t>
   </si>
   <si>
     <t>common.bubbleType</t>
@@ -482,13 +488,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑 Light"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -976,10 +988,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -988,34 +1000,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1027,120 +1036,132 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1460,885 +1481,902 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="19" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="99" customHeight="1" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="b">
+      <c r="C4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="b">
+      <c r="D4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="7:9">
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="7:9">
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="7:9">
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="7:9">
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="7:9">
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="7:9">
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
+    <row r="11" s="1" customFormat="1" spans="1:9">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="5" t="b">
+      <c r="H11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="D11" s="5" t="b">
+      <c r="D12" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="5">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="5">
+    <row r="13" spans="1:9">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="5">
+    <row r="14" spans="1:9">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="5">
+    <row r="15" spans="1:9">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1" t="b">
+    <row r="16" spans="2:9">
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D15" s="1" t="b">
+      <c r="D16" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="G16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="7:9">
-      <c r="G16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="1">
+    <row r="17" spans="7:9">
+      <c r="G17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="7:9">
-      <c r="G17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="1">
+    <row r="18" spans="7:9">
+      <c r="G18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="1" t="b">
+    <row r="19" spans="2:9">
+      <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D18" s="1" t="b">
+      <c r="D19" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="1">
+      <c r="G19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="7:9">
-      <c r="G19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="1">
+    <row r="20" spans="7:9">
+      <c r="G20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="7:9">
-      <c r="G20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" s="1">
+    <row r="21" spans="7:9">
+      <c r="G21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="7:9">
-      <c r="G21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="1">
+    <row r="22" spans="7:9">
+      <c r="G22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="1" t="b">
+    <row r="23" spans="2:9">
+      <c r="B23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D22" s="1" t="b">
+      <c r="D23" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" s="1">
+      <c r="G23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="7:9">
-      <c r="G23" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I23" s="1">
+    <row r="24" spans="7:9">
+      <c r="G24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="7:9">
-      <c r="G24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="1">
+    <row r="25" spans="7:9">
+      <c r="G25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="7:9">
-      <c r="G25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" s="1">
+    <row r="26" spans="7:9">
+      <c r="G26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="7:9">
-      <c r="G26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I26" s="1">
+    <row r="27" spans="7:9">
+      <c r="G27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="1" t="b">
+    <row r="28" spans="2:9">
+      <c r="B28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D27" s="1" t="b">
+      <c r="D28" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I27" s="1">
+      <c r="G28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="7:9">
-      <c r="G28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I28" s="1">
+    <row r="29" spans="7:9">
+      <c r="G29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="7:9">
-      <c r="G29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I29" s="1">
+    <row r="30" spans="7:9">
+      <c r="G30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="1" t="b">
+    <row r="31" spans="2:9">
+      <c r="B31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D30" s="1" t="b">
+      <c r="D31" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I30" s="1">
+      <c r="G31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" s="2">
         <v>1001</v>
       </c>
     </row>
-    <row r="31" spans="7:9">
-      <c r="G31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I31" s="1">
+    <row r="32" spans="7:9">
+      <c r="G32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="32" spans="7:9">
-      <c r="G32" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I32" s="1">
+    <row r="33" spans="7:9">
+      <c r="G33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" s="2">
         <v>1003</v>
       </c>
     </row>
-    <row r="33" spans="7:9">
-      <c r="G33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I33" s="1">
+    <row r="34" spans="7:9">
+      <c r="G34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34" s="2">
         <v>1004</v>
       </c>
     </row>
-    <row r="34" spans="7:9">
-      <c r="G34" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I34" s="1">
+    <row r="35" spans="7:9">
+      <c r="G35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" s="2">
         <v>1005</v>
       </c>
     </row>
-    <row r="35" spans="7:9">
-      <c r="G35" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I35" s="1">
+    <row r="36" spans="7:9">
+      <c r="G36" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I36" s="2">
         <v>1006</v>
       </c>
     </row>
-    <row r="36" spans="7:9">
-      <c r="G36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I36" s="1">
+    <row r="37" spans="7:9">
+      <c r="G37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" s="2">
         <v>1007</v>
       </c>
     </row>
-    <row r="37" spans="7:9">
-      <c r="G37" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I37" s="1">
+    <row r="38" spans="7:9">
+      <c r="G38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" s="2">
         <v>1008</v>
       </c>
     </row>
-    <row r="38" spans="7:9">
-      <c r="G38" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I38" s="1">
+    <row r="39" spans="7:9">
+      <c r="G39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I39" s="2">
         <v>1009</v>
       </c>
     </row>
-    <row r="39" spans="7:9">
-      <c r="G39" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I39" s="1">
+    <row r="40" spans="7:9">
+      <c r="G40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I40" s="2">
         <v>1010</v>
       </c>
     </row>
-    <row r="40" spans="7:9">
-      <c r="G40" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I40" s="1">
+    <row r="41" spans="7:9">
+      <c r="G41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I41" s="2">
         <v>1011</v>
       </c>
     </row>
-    <row r="41" spans="7:9">
-      <c r="G41" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I41" s="1">
+    <row r="42" spans="7:9">
+      <c r="G42" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I42" s="2">
         <v>1012</v>
       </c>
     </row>
-    <row r="42" spans="7:9">
-      <c r="G42" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I42" s="1">
+    <row r="43" spans="7:9">
+      <c r="G43" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I43" s="2">
         <v>1013</v>
       </c>
     </row>
-    <row r="43" spans="7:9">
-      <c r="G43" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I43" s="1">
+    <row r="44" spans="7:9">
+      <c r="G44" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I44" s="2">
         <v>1014</v>
       </c>
     </row>
-    <row r="44" spans="7:9">
-      <c r="G44" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I44" s="1">
+    <row r="45" spans="7:9">
+      <c r="G45" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I45" s="2">
         <v>1015</v>
       </c>
     </row>
-    <row r="45" spans="7:9">
-      <c r="G45" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I45" s="1">
+    <row r="46" spans="7:9">
+      <c r="G46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I46" s="2">
         <v>1016</v>
       </c>
     </row>
-    <row r="46" spans="7:9">
-      <c r="G46" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I46" s="1">
+    <row r="47" spans="7:9">
+      <c r="G47" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I47" s="2">
         <v>1017</v>
       </c>
     </row>
-    <row r="47" spans="7:9">
-      <c r="G47" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I47" s="1">
+    <row r="48" spans="7:9">
+      <c r="G48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I48" s="2">
         <v>1018</v>
       </c>
     </row>
-    <row r="48" spans="7:9">
-      <c r="G48" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I48" s="1">
+    <row r="49" spans="7:9">
+      <c r="G49" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I49" s="2">
         <v>1019</v>
       </c>
     </row>
-    <row r="49" spans="7:9">
-      <c r="G49" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I49" s="1">
+    <row r="50" spans="7:9">
+      <c r="G50" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I50" s="2">
         <v>1020</v>
       </c>
     </row>
-    <row r="50" spans="7:9">
-      <c r="G50" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I50" s="1">
+    <row r="51" spans="7:9">
+      <c r="G51" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I51" s="2">
         <v>1021</v>
       </c>
     </row>
-    <row r="51" spans="7:9">
-      <c r="G51" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I51" s="1">
+    <row r="52" spans="7:9">
+      <c r="G52" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I52" s="2">
         <v>1022</v>
       </c>
     </row>
-    <row r="52" spans="7:9">
-      <c r="G52" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I52" s="1">
+    <row r="53" spans="7:9">
+      <c r="G53" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I53" s="2">
         <v>1023</v>
       </c>
     </row>
-    <row r="53" spans="7:9">
-      <c r="G53" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I53" s="1">
+    <row r="54" spans="7:9">
+      <c r="G54" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I54" s="2">
         <v>1024</v>
       </c>
     </row>
-    <row r="54" spans="7:9">
-      <c r="G54" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I54" s="1">
+    <row r="55" spans="7:9">
+      <c r="G55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I55" s="2">
         <v>1025</v>
       </c>
     </row>
-    <row r="55" spans="7:9">
-      <c r="G55" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I55" s="1">
+    <row r="56" spans="7:9">
+      <c r="G56" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I56" s="2">
         <v>1026</v>
       </c>
     </row>
-    <row r="56" spans="7:9">
-      <c r="G56" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I56" s="1">
+    <row r="57" spans="7:9">
+      <c r="G57" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I57" s="2">
         <v>1027</v>
       </c>
     </row>
-    <row r="57" spans="7:9">
-      <c r="G57" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I57" s="1">
+    <row r="58" spans="7:9">
+      <c r="G58" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I58" s="2">
         <v>1028</v>
       </c>
     </row>
-    <row r="58" spans="7:9">
-      <c r="G58" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I58" s="1">
+    <row r="59" spans="7:9">
+      <c r="G59" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I59" s="2">
         <v>1029</v>
       </c>
     </row>
-    <row r="59" spans="7:9">
-      <c r="G59" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I59" s="1">
+    <row r="60" spans="7:9">
+      <c r="G60" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I60" s="2">
         <v>1030</v>
       </c>
     </row>
-    <row r="60" spans="7:9">
-      <c r="G60" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I60" s="1">
+    <row r="61" spans="7:9">
+      <c r="G61" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I61" s="2">
         <v>1031</v>
       </c>
     </row>
-    <row r="61" spans="7:9">
-      <c r="G61" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I61" s="1">
+    <row r="62" spans="7:9">
+      <c r="G62" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I62" s="2">
         <v>1032</v>
       </c>
     </row>
-    <row r="62" spans="7:9">
-      <c r="G62" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I62" s="1">
+    <row r="63" spans="7:9">
+      <c r="G63" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I63" s="2">
         <v>1033</v>
       </c>
     </row>
-    <row r="63" spans="7:9">
-      <c r="G63" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I63" s="1">
+    <row r="64" spans="7:9">
+      <c r="G64" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I64" s="2">
         <v>1034</v>
       </c>
     </row>
-    <row r="64" spans="7:9">
-      <c r="G64" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I64" s="1">
+    <row r="65" spans="7:9">
+      <c r="G65" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I65" s="2">
         <v>1035</v>
       </c>
     </row>
-    <row r="65" spans="2:9">
-      <c r="B65" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H65" s="1" t="s">
+    <row r="66" spans="2:9">
+      <c r="B66" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="I65" s="7">
+      <c r="G66" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I66" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="7:9">
-      <c r="G66" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I66" s="7">
+    <row r="67" spans="7:9">
+      <c r="G67" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I67" s="10">
         <v>2</v>
       </c>
     </row>

--- a/DataConfig/Datas/__enums__.xlsx
+++ b/DataConfig/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="158">
   <si>
     <t>##var</t>
   </si>
@@ -476,6 +476,18 @@
   </si>
   <si>
     <t>加醋</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>加糖</t>
+  </si>
+  <si>
+    <t>Spicy</t>
+  </si>
+  <si>
+    <t>加辣</t>
   </si>
 </sst>
 </file>
@@ -1149,9 +1161,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1161,6 +1170,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1481,10 +1491,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1669,94 +1679,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:9">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7" t="s">
+    <row r="11" s="1" customFormat="1" spans="7:9">
+      <c r="G11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="8" t="b">
+      <c r="C12" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D12" s="8" t="b">
+      <c r="D12" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>4</v>
       </c>
     </row>
@@ -1876,7 +1880,7 @@
       </c>
     </row>
     <row r="24" spans="7:9">
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>63</v>
       </c>
       <c r="H24" s="2" t="s">
@@ -2378,6 +2382,28 @@
       </c>
       <c r="I67" s="10">
         <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="7:9">
+      <c r="G68" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I68" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="7:9">
+      <c r="G69" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="I69" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Datas/__enums__.xlsx
+++ b/DataConfig/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowWidth="27075" windowHeight="11130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,13 +220,13 @@
     <t>Steam</t>
   </si>
   <si>
-    <t>蒸锅</t>
+    <t>蒸笼</t>
   </si>
   <si>
     <t>Barbecue</t>
   </si>
   <si>
-    <t>烤锅</t>
+    <t>烤架</t>
   </si>
   <si>
     <t>food.cookDifficulty</t>
@@ -493,7 +493,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -527,34 +527,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -568,14 +540,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -615,6 +579,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -665,7 +644,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,49 +692,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,97 +830,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,21 +891,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,6 +924,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -997,152 +997,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1170,57 +1170,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1493,8 +1492,8 @@
   <sheetPr/>
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2369,7 +2368,7 @@
       <c r="H66" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="I66" s="10">
+      <c r="I66" s="9">
         <v>1</v>
       </c>
     </row>
@@ -2380,7 +2379,7 @@
       <c r="H67" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="I67" s="10">
+      <c r="I67" s="9">
         <v>2</v>
       </c>
     </row>

--- a/DataConfig/Datas/__enums__.xlsx
+++ b/DataConfig/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27075" windowHeight="11130"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -199,7 +199,7 @@
     <t>food.cookTools</t>
   </si>
   <si>
-    <t>Cook</t>
+    <t>Fry</t>
   </si>
   <si>
     <t>炒锅</t>
@@ -211,7 +211,7 @@
     <t>煮锅</t>
   </si>
   <si>
-    <t>Fry</t>
+    <t>Deepfry</t>
   </si>
   <si>
     <t>炸锅</t>
@@ -1492,8 +1492,8 @@
   <sheetPr/>
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/DataConfig/Datas/__enums__.xlsx
+++ b/DataConfig/Datas/__enums__.xlsx
@@ -1492,8 +1492,8 @@
   <sheetPr/>
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/DataConfig/Datas/__enums__.xlsx
+++ b/DataConfig/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="162">
   <si>
     <t>##var</t>
   </si>
@@ -146,6 +146,18 @@
   </si>
   <si>
     <t>评论</t>
+  </si>
+  <si>
+    <t>Omakase</t>
+  </si>
+  <si>
+    <t>模糊订单</t>
+  </si>
+  <si>
+    <t>HybridOrder</t>
+  </si>
+  <si>
+    <t>模棱两可</t>
   </si>
   <si>
     <t>item.itemType</t>
@@ -671,7 +683,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -686,7 +698,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,7 +1078,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1042,16 +1102,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1060,37 +1120,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1132,17 +1168,41 @@
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1161,16 +1221,40 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1490,10 +1574,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1505,7 +1589,7 @@
     <col min="5" max="5" width="9.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="5" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.1416666666667" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.125" style="2" customWidth="1"/>
     <col min="10" max="10" width="15.125" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
@@ -1592,93 +1676,138 @@
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2" t="b">
+      <c r="C4" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="b">
+      <c r="D4" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="7:9">
-      <c r="G5" s="2" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="7:9">
-      <c r="G6" s="2" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="7:9">
-      <c r="G7" s="2" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="7:9">
-      <c r="G8" s="2" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="7:9">
-      <c r="G9" s="2" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="7:9">
-      <c r="G10" s="2" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="7:9">
+    <row r="11" s="1" customFormat="1" spans="1:9">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="6" t="s">
         <v>33</v>
       </c>
@@ -1690,718 +1819,1060 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="7" t="b">
+      <c r="C12" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="D12" s="7" t="b">
+      <c r="D12" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="2" t="b">
+      <c r="H16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="D16" s="2" t="b">
+      <c r="D18" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="7:9">
-      <c r="G17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="2">
+    <row r="19" spans="1:9">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="7:9">
-      <c r="G18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="2">
+    <row r="20" spans="1:9">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="2" t="b">
+    <row r="21" spans="1:9">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D19" s="2" t="b">
+      <c r="D21" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="2">
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="7:9">
-      <c r="G20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" s="2">
+    <row r="22" spans="1:9">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="7:9">
-      <c r="G21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="2">
+    <row r="23" spans="1:9">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="7:9">
-      <c r="G22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="2">
+    <row r="24" spans="1:9">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="2" t="b">
+    <row r="25" spans="1:9">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="D23" s="2" t="b">
+      <c r="D25" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I23" s="2">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="7:9">
-      <c r="G24" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="2">
+    <row r="26" spans="1:9">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="7:9">
-      <c r="G25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" s="2">
+    <row r="27" spans="1:9">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="7:9">
-      <c r="G26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I26" s="2">
+    <row r="28" spans="1:9">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="7:9">
-      <c r="G27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27" s="2">
+    <row r="29" spans="1:9">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="2" t="b">
+    <row r="30" spans="1:9">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="D28" s="2" t="b">
+      <c r="D30" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I28" s="2">
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="7:9">
-      <c r="G29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I29" s="2">
+    <row r="31" spans="1:9">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="7:9">
-      <c r="G30" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I30" s="2">
+    <row r="32" spans="1:9">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="2" t="b">
+    <row r="33" spans="1:9">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="D31" s="2" t="b">
+      <c r="D33" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I31" s="2">
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" s="15">
         <v>1001</v>
       </c>
     </row>
-    <row r="32" spans="7:9">
-      <c r="G32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I32" s="2">
+    <row r="34" spans="1:9">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34" s="15">
         <v>1002</v>
       </c>
     </row>
-    <row r="33" spans="7:9">
-      <c r="G33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I33" s="2">
+    <row r="35" spans="1:9">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" s="15">
         <v>1003</v>
       </c>
     </row>
-    <row r="34" spans="7:9">
-      <c r="G34" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I34" s="2">
+    <row r="36" spans="1:9">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I36" s="15">
         <v>1004</v>
       </c>
     </row>
-    <row r="35" spans="7:9">
-      <c r="G35" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I35" s="2">
+    <row r="37" spans="1:9">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" s="15">
         <v>1005</v>
       </c>
     </row>
-    <row r="36" spans="7:9">
-      <c r="G36" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I36" s="2">
+    <row r="38" spans="1:9">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" s="15">
         <v>1006</v>
       </c>
     </row>
-    <row r="37" spans="7:9">
-      <c r="G37" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I37" s="2">
+    <row r="39" spans="1:9">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I39" s="15">
         <v>1007</v>
       </c>
     </row>
-    <row r="38" spans="7:9">
-      <c r="G38" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I38" s="2">
+    <row r="40" spans="1:9">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I40" s="15">
         <v>1008</v>
       </c>
     </row>
-    <row r="39" spans="7:9">
-      <c r="G39" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I39" s="2">
+    <row r="41" spans="1:9">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I41" s="15">
         <v>1009</v>
       </c>
     </row>
-    <row r="40" spans="7:9">
-      <c r="G40" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I40" s="2">
+    <row r="42" spans="1:9">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I42" s="15">
         <v>1010</v>
       </c>
     </row>
-    <row r="41" spans="7:9">
-      <c r="G41" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I41" s="2">
+    <row r="43" spans="1:9">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I43" s="15">
         <v>1011</v>
       </c>
     </row>
-    <row r="42" spans="7:9">
-      <c r="G42" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I42" s="2">
+    <row r="44" spans="1:9">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I44" s="15">
         <v>1012</v>
       </c>
     </row>
-    <row r="43" spans="7:9">
-      <c r="G43" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I43" s="2">
+    <row r="45" spans="1:9">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I45" s="15">
         <v>1013</v>
       </c>
     </row>
-    <row r="44" spans="7:9">
-      <c r="G44" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I44" s="2">
+    <row r="46" spans="1:9">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I46" s="15">
         <v>1014</v>
       </c>
     </row>
-    <row r="45" spans="7:9">
-      <c r="G45" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I45" s="2">
+    <row r="47" spans="1:9">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I47" s="15">
         <v>1015</v>
       </c>
     </row>
-    <row r="46" spans="7:9">
-      <c r="G46" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I46" s="2">
+    <row r="48" spans="1:9">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I48" s="15">
         <v>1016</v>
       </c>
     </row>
-    <row r="47" spans="7:9">
-      <c r="G47" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I47" s="2">
+    <row r="49" spans="1:9">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="I49" s="15">
         <v>1017</v>
       </c>
     </row>
-    <row r="48" spans="7:9">
-      <c r="G48" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I48" s="2">
+    <row r="50" spans="1:9">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I50" s="15">
         <v>1018</v>
       </c>
     </row>
-    <row r="49" spans="7:9">
-      <c r="G49" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I49" s="2">
+    <row r="51" spans="1:9">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I51" s="15">
         <v>1019</v>
       </c>
     </row>
-    <row r="50" spans="7:9">
-      <c r="G50" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I50" s="2">
+    <row r="52" spans="1:9">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I52" s="15">
         <v>1020</v>
       </c>
     </row>
-    <row r="51" spans="7:9">
-      <c r="G51" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I51" s="2">
+    <row r="53" spans="1:9">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I53" s="15">
         <v>1021</v>
       </c>
     </row>
-    <row r="52" spans="7:9">
-      <c r="G52" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I52" s="2">
+    <row r="54" spans="1:9">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="I54" s="15">
         <v>1022</v>
       </c>
     </row>
-    <row r="53" spans="7:9">
-      <c r="G53" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I53" s="2">
+    <row r="55" spans="1:9">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="I55" s="15">
         <v>1023</v>
       </c>
     </row>
-    <row r="54" spans="7:9">
-      <c r="G54" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I54" s="2">
+    <row r="56" spans="1:9">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="I56" s="15">
         <v>1024</v>
       </c>
     </row>
-    <row r="55" spans="7:9">
-      <c r="G55" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I55" s="2">
+    <row r="57" spans="1:9">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="I57" s="15">
         <v>1025</v>
       </c>
     </row>
-    <row r="56" spans="7:9">
-      <c r="G56" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I56" s="2">
+    <row r="58" spans="1:9">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I58" s="15">
         <v>1026</v>
       </c>
     </row>
-    <row r="57" spans="7:9">
-      <c r="G57" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I57" s="2">
+    <row r="59" spans="1:9">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I59" s="15">
         <v>1027</v>
       </c>
     </row>
-    <row r="58" spans="7:9">
-      <c r="G58" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I58" s="2">
+    <row r="60" spans="1:9">
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="I60" s="15">
         <v>1028</v>
       </c>
     </row>
-    <row r="59" spans="7:9">
-      <c r="G59" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I59" s="2">
+    <row r="61" spans="1:9">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I61" s="15">
         <v>1029</v>
       </c>
     </row>
-    <row r="60" spans="7:9">
-      <c r="G60" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I60" s="2">
+    <row r="62" spans="1:9">
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I62" s="15">
         <v>1030</v>
       </c>
     </row>
-    <row r="61" spans="7:9">
-      <c r="G61" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I61" s="2">
+    <row r="63" spans="1:9">
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="I63" s="15">
         <v>1031</v>
       </c>
     </row>
-    <row r="62" spans="7:9">
-      <c r="G62" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I62" s="2">
+    <row r="64" spans="1:9">
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I64" s="15">
         <v>1032</v>
       </c>
     </row>
-    <row r="63" spans="7:9">
-      <c r="G63" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I63" s="2">
+    <row r="65" spans="1:9">
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="I65" s="15">
         <v>1033</v>
       </c>
     </row>
-    <row r="64" spans="7:9">
-      <c r="G64" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I64" s="2">
+    <row r="66" spans="1:9">
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="I66" s="15">
         <v>1034</v>
       </c>
     </row>
-    <row r="65" spans="7:9">
-      <c r="G65" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I65" s="2">
+    <row r="67" spans="1:9">
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I67" s="15">
         <v>1035</v>
       </c>
     </row>
-    <row r="66" spans="2:9">
-      <c r="B66" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I66" s="9">
+    <row r="68" spans="1:9">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="I68" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="7:9">
-      <c r="G67" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I67" s="9">
+    <row r="69" spans="1:9">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="H69" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="I69" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="7:9">
-      <c r="G68" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="I68" s="2">
+    <row r="70" spans="1:9">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H70" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="I70" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="7:9">
-      <c r="G69" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="I69" s="2">
+    <row r="71" spans="1:9">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="I71" s="16">
         <v>4</v>
       </c>
     </row>

--- a/DataConfig/Datas/__enums__.xlsx
+++ b/DataConfig/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="18345" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -683,7 +683,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -699,12 +699,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,7 +1072,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1102,16 +1096,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1120,89 +1114,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1239,22 +1233,19 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1576,8 +1567,8 @@
   <sheetPr/>
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="C23" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1893,986 +1884,986 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="10" t="b">
+      <c r="C18" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="D18" s="10" t="b">
+      <c r="D18" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="11" t="b">
+      <c r="C21" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="D21" s="11" t="b">
+      <c r="D21" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11" t="s">
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="12" t="b">
+      <c r="C25" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D25" s="12" t="b">
+      <c r="D25" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12" t="s">
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14" t="s">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="14" t="b">
+      <c r="C30" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="D30" s="14" t="b">
+      <c r="D30" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14" t="s">
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="H30" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H31" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14" t="s">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="H32" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15" t="s">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="15" t="b">
+      <c r="C33" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="D33" s="15" t="b">
+      <c r="D33" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15" t="s">
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33" s="14">
         <v>1001</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15" t="s">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I34" s="14">
         <v>1002</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15" t="s">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="I35" s="15">
+      <c r="I35" s="14">
         <v>1003</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15" t="s">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="I36" s="15">
+      <c r="I36" s="14">
         <v>1004</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15" t="s">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="I37" s="15">
+      <c r="I37" s="14">
         <v>1005</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15" t="s">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I38" s="15">
+      <c r="I38" s="14">
         <v>1006</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15" t="s">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="H39" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I39" s="14">
         <v>1007</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15" t="s">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="I40" s="15">
+      <c r="I40" s="14">
         <v>1008</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15" t="s">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="I41" s="15">
+      <c r="I41" s="14">
         <v>1009</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15" t="s">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="H42" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I42" s="14">
         <v>1010</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15" t="s">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H43" s="15" t="s">
+      <c r="H43" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I43" s="14">
         <v>1011</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15" t="s">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="I44" s="15">
+      <c r="I44" s="14">
         <v>1012</v>
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15" t="s">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I45" s="14">
         <v>1013</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15" t="s">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="H46" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="I46" s="15">
+      <c r="I46" s="14">
         <v>1014</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15" t="s">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="H47" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="I47" s="15">
+      <c r="I47" s="14">
         <v>1015</v>
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15" t="s">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="I48" s="15">
+      <c r="I48" s="14">
         <v>1016</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15" t="s">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="H49" s="15" t="s">
+      <c r="H49" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I49" s="15">
+      <c r="I49" s="14">
         <v>1017</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15" t="s">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="H50" s="15" t="s">
+      <c r="H50" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="I50" s="15">
+      <c r="I50" s="14">
         <v>1018</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15" t="s">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="H51" s="15" t="s">
+      <c r="H51" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I51" s="14">
         <v>1019</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15" t="s">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H52" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="I52" s="15">
+      <c r="I52" s="14">
         <v>1020</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15" t="s">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="H53" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="I53" s="15">
+      <c r="I53" s="14">
         <v>1021</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15" t="s">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H54" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="I54" s="15">
+      <c r="I54" s="14">
         <v>1022</v>
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15" t="s">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="H55" s="15" t="s">
+      <c r="H55" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="I55" s="15">
+      <c r="I55" s="14">
         <v>1023</v>
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15" t="s">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="H56" s="15" t="s">
+      <c r="H56" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="I56" s="15">
+      <c r="I56" s="14">
         <v>1024</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15" t="s">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H57" s="15" t="s">
+      <c r="H57" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="I57" s="15">
+      <c r="I57" s="14">
         <v>1025</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15" t="s">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H58" s="15" t="s">
+      <c r="H58" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I58" s="15">
+      <c r="I58" s="14">
         <v>1026</v>
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15" t="s">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="H59" s="15" t="s">
+      <c r="H59" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="I59" s="15">
+      <c r="I59" s="14">
         <v>1027</v>
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15" t="s">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="H60" s="15" t="s">
+      <c r="H60" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="I60" s="15">
+      <c r="I60" s="14">
         <v>1028</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15" t="s">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="H61" s="15" t="s">
+      <c r="H61" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I61" s="14">
         <v>1029</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15" t="s">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H62" s="15" t="s">
+      <c r="H62" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="I62" s="15">
+      <c r="I62" s="14">
         <v>1030</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15" t="s">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="H63" s="15" t="s">
+      <c r="H63" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="I63" s="15">
+      <c r="I63" s="14">
         <v>1031</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15" t="s">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="H64" s="15" t="s">
+      <c r="H64" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="I64" s="15">
+      <c r="I64" s="14">
         <v>1032</v>
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15" t="s">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="H65" s="15" t="s">
+      <c r="H65" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="I65" s="15">
+      <c r="I65" s="14">
         <v>1033</v>
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15" t="s">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="H66" s="15" t="s">
+      <c r="H66" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="I66" s="15">
+      <c r="I66" s="14">
         <v>1034</v>
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15" t="s">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="H67" s="15" t="s">
+      <c r="H67" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="I67" s="15">
+      <c r="I67" s="14">
         <v>1035</v>
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16" t="s">
+      <c r="A68" s="15"/>
+      <c r="B68" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16" t="s">
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="H68" s="16" t="s">
+      <c r="H68" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="I68" s="17">
+      <c r="I68" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16" t="s">
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="H69" s="16" t="s">
+      <c r="H69" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="I69" s="17">
+      <c r="I69" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16" t="s">
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="H70" s="17" t="s">
+      <c r="H70" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="I70" s="16">
+      <c r="I70" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16" t="s">
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="H71" s="17" t="s">
+      <c r="H71" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="I71" s="16">
+      <c r="I71" s="15">
         <v>4</v>
       </c>
     </row>

--- a/DataConfig/Datas/__enums__.xlsx
+++ b/DataConfig/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1567,8 +1567,8 @@
   <sheetPr/>
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/DataConfig/Datas/__enums__.xlsx
+++ b/DataConfig/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="30885" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="182">
   <si>
     <t>##var</t>
   </si>
@@ -119,6 +119,66 @@
   </si>
   <si>
     <t>全部</t>
+  </si>
+  <si>
+    <t>common.Weather</t>
+  </si>
+  <si>
+    <t>Sunshine</t>
+  </si>
+  <si>
+    <t>晴天</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>雨天</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>下雪</t>
+  </si>
+  <si>
+    <t>Typhoon</t>
+  </si>
+  <si>
+    <t>台风</t>
+  </si>
+  <si>
+    <t>SnowStorm</t>
+  </si>
+  <si>
+    <t>暴风雪</t>
+  </si>
+  <si>
+    <t>common.Season</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>春季</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>夏季</t>
+  </si>
+  <si>
+    <t>Autumn</t>
+  </si>
+  <si>
+    <t>秋季</t>
+  </si>
+  <si>
+    <t>Winnter</t>
+  </si>
+  <si>
+    <t>冬季</t>
   </si>
   <si>
     <t>common.bubbleType</t>
@@ -683,7 +743,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -699,6 +759,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,7 +1138,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1096,16 +1162,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1114,89 +1180,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1233,19 +1299,22 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1565,10 +1634,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1809,7 +1878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" customFormat="1" spans="1:9">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
         <v>35</v>
@@ -1832,7 +1901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" customFormat="1" spans="1:9">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1849,7 +1918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" customFormat="1" spans="1:9">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1866,7 +1935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" customFormat="1" spans="1:9">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1883,7 +1952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" customFormat="1" spans="1:9">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1900,34 +1969,34 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8" t="s">
+    <row r="17" customFormat="1" spans="1:9">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="C17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="H17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:9">
       <c r="A18" s="9"/>
-      <c r="B18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9" t="b">
-        <v>1</v>
-      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9" t="s">
@@ -1937,10 +2006,10 @@
         <v>50</v>
       </c>
       <c r="I18" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:9">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1954,10 +2023,10 @@
         <v>52</v>
       </c>
       <c r="I19" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:9">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1971,354 +2040,360 @@
         <v>54</v>
       </c>
       <c r="I20" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="10" t="b">
+    <row r="24" spans="1:9">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="D21" s="10" t="b">
+      <c r="D27" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="10">
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="10">
+    <row r="28" spans="1:9">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I23" s="10">
+    <row r="29" spans="1:9">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I24" s="10">
+    <row r="30" spans="1:9">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="11" t="b">
+    <row r="34" spans="1:9">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="D25" s="11" t="b">
+      <c r="D34" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" s="11">
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I26" s="11">
+    <row r="35" spans="1:9">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27" s="11">
+    <row r="36" spans="1:9">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I36" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I28" s="11">
+    <row r="37" spans="1:9">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="I29" s="11">
+    <row r="38" spans="1:9">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" s="12">
         <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="I30" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I31" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I32" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I33" s="14">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I34" s="14">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I35" s="14">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="I36" s="14">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I37" s="14">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I38" s="14">
-        <v>1006</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
+      <c r="B39" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="14" t="b">
+        <v>1</v>
+      </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I39" s="14">
-        <v>1007</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2329,13 +2404,13 @@
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I40" s="14">
-        <v>1008</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2346,474 +2421,478 @@
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I41" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I42" s="15">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I43" s="15">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I44" s="15">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I45" s="15">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I46" s="15">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I47" s="15">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="I48" s="15">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I49" s="15">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I50" s="15">
         <v>1009</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="I42" s="14">
+    <row r="51" spans="1:9">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I51" s="15">
         <v>1010</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="I43" s="14">
+    <row r="52" spans="1:9">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I52" s="15">
         <v>1011</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="I44" s="14">
+    <row r="53" spans="1:9">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="I53" s="15">
         <v>1012</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="I45" s="14">
+    <row r="54" spans="1:9">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="I54" s="15">
         <v>1013</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="I46" s="14">
+    <row r="55" spans="1:9">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="I55" s="15">
         <v>1014</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="I47" s="14">
+    <row r="56" spans="1:9">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="I56" s="15">
         <v>1015</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="I48" s="14">
+    <row r="57" spans="1:9">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I57" s="15">
         <v>1016</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H49" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="I49" s="14">
+    <row r="58" spans="1:9">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I58" s="15">
         <v>1017</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="H50" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="I50" s="14">
+    <row r="59" spans="1:9">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="I59" s="15">
         <v>1018</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="H51" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="I51" s="14">
+    <row r="60" spans="1:9">
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I60" s="15">
         <v>1019</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="H52" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I52" s="14">
+    <row r="61" spans="1:9">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I61" s="15">
         <v>1020</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="I53" s="14">
+    <row r="62" spans="1:9">
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="I62" s="15">
         <v>1021</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="H54" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="I54" s="14">
+    <row r="63" spans="1:9">
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I63" s="15">
         <v>1022</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="H55" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I55" s="14">
+    <row r="64" spans="1:9">
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="I64" s="15">
         <v>1023</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="H56" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="I56" s="14">
+    <row r="65" spans="1:9">
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="I65" s="15">
         <v>1024</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="H57" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="I57" s="14">
+    <row r="66" spans="1:9">
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I66" s="15">
         <v>1025</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H58" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="I58" s="14">
+    <row r="67" spans="1:9">
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="I67" s="15">
         <v>1026</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="H59" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="I59" s="14">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="H60" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="I60" s="14">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="H61" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="I61" s="14">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="H62" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="I62" s="14">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="H63" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="I63" s="14">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="H64" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="I64" s="14">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="H65" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="I65" s="14">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="H66" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="I66" s="14">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="H67" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="I67" s="14">
-        <v>1035</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="15"/>
-      <c r="B68" s="15" t="s">
-        <v>153</v>
-      </c>
+      <c r="B68" s="15"/>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
       <c r="G68" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="I68" s="16">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="I68" s="15">
+        <v>1027</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2824,13 +2903,13 @@
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
       <c r="G69" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="I69" s="16">
-        <v>2</v>
+        <v>158</v>
+      </c>
+      <c r="I69" s="15">
+        <v>1028</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2841,13 +2920,13 @@
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
       <c r="G70" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H70" s="16" t="s">
         <v>159</v>
       </c>
+      <c r="H70" s="15" t="s">
+        <v>160</v>
+      </c>
       <c r="I70" s="15">
-        <v>3</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2858,12 +2937,167 @@
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
       <c r="G71" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="H71" s="16" t="s">
         <v>161</v>
       </c>
+      <c r="H71" s="15" t="s">
+        <v>162</v>
+      </c>
       <c r="I71" s="15">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="I72" s="15">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="I73" s="15">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I74" s="15">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="I75" s="15">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="I76" s="15">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="H77" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="I77" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="H78" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="I78" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H79" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="I79" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="H80" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="I80" s="16">
         <v>4</v>
       </c>
     </row>

--- a/DataConfig/Datas/__enums__.xlsx
+++ b/DataConfig/Datas/__enums__.xlsx
@@ -788,13 +788,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor rgb="FFB7A5C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBE93DF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1368,6 +1368,12 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00BE93DF"/>
+      <color rgb="00B7A5C9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1636,8 +1642,8 @@
   <sheetPr/>
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/DataConfig/Datas/__enums__.xlsx
+++ b/DataConfig/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30885" windowHeight="17655"/>
+    <workbookView windowWidth="21840" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="196">
   <si>
     <t>##var</t>
   </si>
@@ -560,6 +560,48 @@
   </si>
   <si>
     <t>加辣</t>
+  </si>
+  <si>
+    <t>character.behaviour</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>离开</t>
+  </si>
+  <si>
+    <t>OrderMeal</t>
+  </si>
+  <si>
+    <t>点餐</t>
+  </si>
+  <si>
+    <t>OrderDrink</t>
+  </si>
+  <si>
+    <t>点饮料</t>
+  </si>
+  <si>
+    <t>闲聊</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>进入</t>
+  </si>
+  <si>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>等待</t>
+  </si>
+  <si>
+    <t>Eating</t>
+  </si>
+  <si>
+    <t>吃法</t>
   </si>
 </sst>
 </file>
@@ -743,7 +785,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -795,12 +837,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBE93DF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,7 +1174,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1162,16 +1198,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1180,89 +1216,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1311,10 +1347,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1640,10 +1673,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1864,7 +1897,7 @@
         <v>32</v>
       </c>
       <c r="I10" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:9">
@@ -1881,7 +1914,7 @@
         <v>34</v>
       </c>
       <c r="I11" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:9">
@@ -2437,674 +2470,795 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15" t="s">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="15" t="b">
+      <c r="C42" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="D42" s="15" t="b">
+      <c r="D42" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15" t="s">
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="H42" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I42" s="10">
         <v>1001</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15" t="s">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="H43" s="15" t="s">
+      <c r="H43" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I43" s="10">
         <v>1002</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15" t="s">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="I44" s="15">
+      <c r="I44" s="10">
         <v>1003</v>
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15" t="s">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I45" s="10">
         <v>1004</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15" t="s">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="H46" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="I46" s="15">
+      <c r="I46" s="10">
         <v>1005</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15" t="s">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="H47" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="I47" s="15">
+      <c r="I47" s="10">
         <v>1006</v>
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15" t="s">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="I48" s="15">
+      <c r="I48" s="10">
         <v>1007</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15" t="s">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="H49" s="15" t="s">
+      <c r="H49" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="I49" s="15">
+      <c r="I49" s="10">
         <v>1008</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15" t="s">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="H50" s="15" t="s">
+      <c r="H50" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="I50" s="15">
+      <c r="I50" s="10">
         <v>1009</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15" t="s">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H51" s="15" t="s">
+      <c r="H51" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I51" s="10">
         <v>1010</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15" t="s">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H52" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="I52" s="15">
+      <c r="I52" s="10">
         <v>1011</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15" t="s">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="H53" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="I53" s="15">
+      <c r="I53" s="10">
         <v>1012</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15" t="s">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H54" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="I54" s="15">
+      <c r="I54" s="10">
         <v>1013</v>
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15" t="s">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="H55" s="15" t="s">
+      <c r="H55" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="I55" s="15">
+      <c r="I55" s="10">
         <v>1014</v>
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15" t="s">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H56" s="15" t="s">
+      <c r="H56" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="I56" s="15">
+      <c r="I56" s="10">
         <v>1015</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15" t="s">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="H57" s="15" t="s">
+      <c r="H57" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="I57" s="15">
+      <c r="I57" s="10">
         <v>1016</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15" t="s">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H58" s="15" t="s">
+      <c r="H58" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I58" s="15">
+      <c r="I58" s="10">
         <v>1017</v>
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15" t="s">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H59" s="15" t="s">
+      <c r="H59" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="I59" s="15">
+      <c r="I59" s="10">
         <v>1018</v>
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15" t="s">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H60" s="15" t="s">
+      <c r="H60" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="I60" s="15">
+      <c r="I60" s="10">
         <v>1019</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15" t="s">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="H61" s="15" t="s">
+      <c r="H61" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I61" s="10">
         <v>1020</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15" t="s">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H62" s="15" t="s">
+      <c r="H62" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="I62" s="15">
+      <c r="I62" s="10">
         <v>1021</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15" t="s">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="H63" s="15" t="s">
+      <c r="H63" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="I63" s="15">
+      <c r="I63" s="10">
         <v>1022</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15" t="s">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="H64" s="15" t="s">
+      <c r="H64" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="I64" s="15">
+      <c r="I64" s="10">
         <v>1023</v>
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15" t="s">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="H65" s="15" t="s">
+      <c r="H65" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="I65" s="15">
+      <c r="I65" s="10">
         <v>1024</v>
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15" t="s">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="H66" s="15" t="s">
+      <c r="H66" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="I66" s="15">
+      <c r="I66" s="10">
         <v>1025</v>
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15" t="s">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H67" s="15" t="s">
+      <c r="H67" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I67" s="15">
+      <c r="I67" s="10">
         <v>1026</v>
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15" t="s">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="H68" s="15" t="s">
+      <c r="H68" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="I68" s="15">
+      <c r="I68" s="10">
         <v>1027</v>
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15" t="s">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="H69" s="15" t="s">
+      <c r="H69" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="I69" s="15">
+      <c r="I69" s="10">
         <v>1028</v>
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15" t="s">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="H70" s="15" t="s">
+      <c r="H70" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="I70" s="15">
+      <c r="I70" s="10">
         <v>1029</v>
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15" t="s">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H71" s="15" t="s">
+      <c r="H71" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="I71" s="15">
+      <c r="I71" s="10">
         <v>1030</v>
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15" t="s">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="H72" s="15" t="s">
+      <c r="H72" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="I72" s="15">
+      <c r="I72" s="10">
         <v>1031</v>
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15" t="s">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="H73" s="15" t="s">
+      <c r="H73" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="I73" s="15">
+      <c r="I73" s="10">
         <v>1032</v>
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15" t="s">
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="H74" s="15" t="s">
+      <c r="H74" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="I74" s="15">
+      <c r="I74" s="10">
         <v>1033</v>
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15" t="s">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="H75" s="15" t="s">
+      <c r="H75" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="I75" s="15">
+      <c r="I75" s="10">
         <v>1034</v>
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15" t="s">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H76" s="15" t="s">
+      <c r="H76" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="I76" s="15">
+      <c r="I76" s="10">
         <v>1035</v>
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16" t="s">
+      <c r="A77" s="15"/>
+      <c r="B77" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16" t="s">
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="H77" s="16" t="s">
+      <c r="H77" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="I77" s="17">
+      <c r="I77" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16" t="s">
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="H78" s="16" t="s">
+      <c r="H78" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="I78" s="17">
+      <c r="I78" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16" t="s">
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="H79" s="17" t="s">
+      <c r="H79" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="I79" s="16">
+      <c r="I79" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="16"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16" t="s">
+      <c r="A80" s="15"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="H80" s="17" t="s">
+      <c r="H80" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="I80" s="16">
+      <c r="I80" s="15">
         <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="I81" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="I82" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="I83" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="I84" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="I85" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="I86" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="I87" s="10">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Datas/__enums__.xlsx
+++ b/DataConfig/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21840" windowHeight="17655"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1675,8 +1675,8 @@
   <sheetPr/>
   <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="L84" sqref="L84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2083,110 +2083,110 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="9" t="b">
+      <c r="C21" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="D21" s="9" t="b">
+      <c r="D21" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9" t="s">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="8">
         <v>6</v>
       </c>
     </row>

--- a/DataConfig/Datas/__enums__.xlsx
+++ b/DataConfig/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="201">
   <si>
     <t>##var</t>
   </si>
@@ -565,43 +565,58 @@
     <t>character.behaviour</t>
   </si>
   <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>进入</t>
+  </si>
+  <si>
+    <t>点餐</t>
+  </si>
+  <si>
+    <t>OrderMeal</t>
+  </si>
+  <si>
+    <t>点菜</t>
+  </si>
+  <si>
+    <t>OrderDrink</t>
+  </si>
+  <si>
+    <t>点饮料</t>
+  </si>
+  <si>
+    <t>闲聊</t>
+  </si>
+  <si>
     <t>Leave</t>
   </si>
   <si>
     <t>离开</t>
   </si>
   <si>
-    <t>OrderMeal</t>
-  </si>
-  <si>
-    <t>点餐</t>
-  </si>
-  <si>
-    <t>OrderDrink</t>
-  </si>
-  <si>
-    <t>点饮料</t>
-  </si>
-  <si>
-    <t>闲聊</t>
-  </si>
-  <si>
-    <t>Enter</t>
-  </si>
-  <si>
-    <t>进入</t>
-  </si>
-  <si>
-    <t>Waiting</t>
-  </si>
-  <si>
-    <t>等待</t>
+    <t>WaitReply</t>
+  </si>
+  <si>
+    <t>等待回复</t>
+  </si>
+  <si>
+    <t>WaitOrder</t>
+  </si>
+  <si>
+    <t>等待上菜</t>
   </si>
   <si>
     <t>Eating</t>
   </si>
   <si>
     <t>吃法</t>
+  </si>
+  <si>
+    <t>Thinking</t>
+  </si>
+  <si>
+    <t>思考</t>
   </si>
 </sst>
 </file>
@@ -785,7 +800,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -843,6 +858,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,7 +1195,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1198,16 +1219,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1216,89 +1237,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1348,6 +1369,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1673,10 +1697,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="L84" sqref="L84"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="O84" sqref="O84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3167,10 +3191,10 @@
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
       <c r="G82" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H82" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="H82" s="10" t="s">
-        <v>186</v>
       </c>
       <c r="I82" s="10">
         <v>2</v>
@@ -3184,10 +3208,10 @@
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
       <c r="G83" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="H83" s="10" t="s">
         <v>187</v>
-      </c>
-      <c r="H83" s="10" t="s">
-        <v>188</v>
       </c>
       <c r="I83" s="10">
         <v>3</v>
@@ -3201,7 +3225,7 @@
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
       <c r="G84" s="10" t="s">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="H84" s="10" t="s">
         <v>189</v>
@@ -3218,10 +3242,10 @@
       <c r="E85" s="10"/>
       <c r="F85" s="10"/>
       <c r="G85" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H85" s="10" t="s">
         <v>190</v>
-      </c>
-      <c r="H85" s="10" t="s">
-        <v>191</v>
       </c>
       <c r="I85" s="10">
         <v>5</v>
@@ -3235,10 +3259,10 @@
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
       <c r="G86" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H86" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="H86" s="10" t="s">
-        <v>193</v>
       </c>
       <c r="I86" s="10">
         <v>6</v>
@@ -3252,13 +3276,81 @@
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
       <c r="G87" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="H87" s="10" t="s">
         <v>194</v>
-      </c>
-      <c r="H87" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="I87" s="10">
         <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="H88" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="I88" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="I89" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="H90" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="I90" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I91" s="10">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Datas/__enums__.xlsx
+++ b/DataConfig/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="208">
   <si>
     <t>##var</t>
   </si>
@@ -184,439 +184,460 @@
     <t>common.bubbleType</t>
   </si>
   <si>
+    <t>MainLine</t>
+  </si>
+  <si>
+    <t>主线</t>
+  </si>
+  <si>
     <t>Talk</t>
   </si>
   <si>
     <t>对话</t>
   </si>
   <si>
+    <t>SpecifiedOrder</t>
+  </si>
+  <si>
+    <t>精准下单</t>
+  </si>
+  <si>
+    <t>Omakase</t>
+  </si>
+  <si>
+    <t>模糊订单</t>
+  </si>
+  <si>
+    <t>HybridOrder</t>
+  </si>
+  <si>
+    <t>模棱两可</t>
+  </si>
+  <si>
+    <t>SpecifiedComment</t>
+  </si>
+  <si>
+    <t>精准评论</t>
+  </si>
+  <si>
+    <t>OmakaseComment</t>
+  </si>
+  <si>
+    <t>模糊评论</t>
+  </si>
+  <si>
+    <t>HybridComment</t>
+  </si>
+  <si>
+    <t>模棱两可评论</t>
+  </si>
+  <si>
+    <t>item.itemType</t>
+  </si>
+  <si>
+    <t>FoodMaterial</t>
+  </si>
+  <si>
+    <t>食材</t>
+  </si>
+  <si>
+    <t>Receipt</t>
+  </si>
+  <si>
+    <t>菜谱</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>货币</t>
+  </si>
+  <si>
+    <t>food.materialType</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>肉类</t>
+  </si>
+  <si>
+    <t>Seafood</t>
+  </si>
+  <si>
+    <t>海鲜</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>蔬菜</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>food.cookTools</t>
+  </si>
+  <si>
+    <t>Fry</t>
+  </si>
+  <si>
+    <t>炒锅</t>
+  </si>
+  <si>
+    <t>Boil</t>
+  </si>
+  <si>
+    <t>煮锅</t>
+  </si>
+  <si>
+    <t>Deepfry</t>
+  </si>
+  <si>
+    <t>炸锅</t>
+  </si>
+  <si>
+    <t>Steam</t>
+  </si>
+  <si>
+    <t>蒸笼</t>
+  </si>
+  <si>
+    <t>Barbecue</t>
+  </si>
+  <si>
+    <t>烤架</t>
+  </si>
+  <si>
+    <t>food.cookDifficulty</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>简单</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>困难</t>
+  </si>
+  <si>
+    <t>food.flavorTag</t>
+  </si>
+  <si>
+    <t>Rou</t>
+  </si>
+  <si>
+    <t>肉</t>
+  </si>
+  <si>
+    <t>ShuiChan</t>
+  </si>
+  <si>
+    <t>水产</t>
+  </si>
+  <si>
+    <t>Su</t>
+  </si>
+  <si>
+    <t>素</t>
+  </si>
+  <si>
+    <t>ShiHui</t>
+  </si>
+  <si>
+    <t>实惠</t>
+  </si>
+  <si>
+    <t>AngGui</t>
+  </si>
+  <si>
+    <t>昂贵</t>
+  </si>
+  <si>
+    <t>JiaChang</t>
+  </si>
+  <si>
+    <t>家常</t>
+  </si>
+  <si>
+    <t>LiangCai</t>
+  </si>
+  <si>
+    <t>凉菜</t>
+  </si>
+  <si>
+    <t>LuZhiPing</t>
+  </si>
+  <si>
+    <t>卤制品</t>
+  </si>
+  <si>
+    <t>HunSu</t>
+  </si>
+  <si>
+    <t>荤素搭配</t>
+  </si>
+  <si>
+    <t>YeWei</t>
+  </si>
+  <si>
+    <t>野味</t>
+  </si>
+  <si>
+    <t>XiaoChao</t>
+  </si>
+  <si>
+    <t>小炒</t>
+  </si>
+  <si>
+    <t>ShaoKao</t>
+  </si>
+  <si>
+    <t>烧烤</t>
+  </si>
+  <si>
+    <t>ZhongYou</t>
+  </si>
+  <si>
+    <t>重油</t>
+  </si>
+  <si>
+    <t>TangGeng</t>
+  </si>
+  <si>
+    <t>汤羹</t>
+  </si>
+  <si>
+    <t>ReQi</t>
+  </si>
+  <si>
+    <t>热气</t>
+  </si>
+  <si>
+    <t>QingDan</t>
+  </si>
+  <si>
+    <t>清淡</t>
+  </si>
+  <si>
+    <t>Suan</t>
+  </si>
+  <si>
+    <t>酸</t>
+  </si>
+  <si>
+    <t>Tian</t>
+  </si>
+  <si>
+    <t>甜</t>
+  </si>
+  <si>
+    <t>Ku</t>
+  </si>
+  <si>
+    <t>苦</t>
+  </si>
+  <si>
+    <t>La</t>
+  </si>
+  <si>
+    <t>辣</t>
+  </si>
+  <si>
+    <t>XianWei</t>
+  </si>
+  <si>
+    <t>咸</t>
+  </si>
+  <si>
+    <t>Xian</t>
+  </si>
+  <si>
+    <t>鲜</t>
+  </si>
+  <si>
+    <t>Chou</t>
+  </si>
+  <si>
+    <t>臭</t>
+  </si>
+  <si>
+    <t>BaoFu</t>
+  </si>
+  <si>
+    <t>饱腹</t>
+  </si>
+  <si>
+    <t>XiaoQiao</t>
+  </si>
+  <si>
+    <t>小巧</t>
+  </si>
+  <si>
+    <t>QingLiang</t>
+  </si>
+  <si>
+    <t>清凉</t>
+  </si>
+  <si>
+    <t>NuanWei</t>
+  </si>
+  <si>
+    <t>暖胃</t>
+  </si>
+  <si>
+    <t>TangZui</t>
+  </si>
+  <si>
+    <t>烫嘴</t>
+  </si>
+  <si>
+    <t>BingShuang</t>
+  </si>
+  <si>
+    <t>冰爽</t>
+  </si>
+  <si>
+    <t>XiangSu</t>
+  </si>
+  <si>
+    <t>香酥</t>
+  </si>
+  <si>
+    <t>JianFei</t>
+  </si>
+  <si>
+    <t>减肥</t>
+  </si>
+  <si>
+    <t>Nen</t>
+  </si>
+  <si>
+    <t>嫩</t>
+  </si>
+  <si>
+    <t>Lao</t>
+  </si>
+  <si>
+    <t>老</t>
+  </si>
+  <si>
+    <t>RuanLan</t>
+  </si>
+  <si>
+    <t>软烂</t>
+  </si>
+  <si>
+    <t>KaiWei</t>
+  </si>
+  <si>
+    <t>开胃</t>
+  </si>
+  <si>
+    <t>food.qteTag</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>加盐</t>
+  </si>
+  <si>
+    <t>Vinegar</t>
+  </si>
+  <si>
+    <t>加醋</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>加糖</t>
+  </si>
+  <si>
+    <t>Spicy</t>
+  </si>
+  <si>
+    <t>加辣</t>
+  </si>
+  <si>
+    <t>character.behaviour</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>进入</t>
+  </si>
+  <si>
     <t>Order</t>
   </si>
   <si>
-    <t>下单</t>
-  </si>
-  <si>
-    <t>MainLine</t>
-  </si>
-  <si>
-    <t>主线</t>
+    <t>点餐</t>
+  </si>
+  <si>
+    <t>OrderMeal</t>
+  </si>
+  <si>
+    <t>点菜</t>
+  </si>
+  <si>
+    <t>OrderDrink</t>
+  </si>
+  <si>
+    <t>点饮料</t>
+  </si>
+  <si>
+    <t>闲聊</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>离开</t>
+  </si>
+  <si>
+    <t>WaitReply</t>
+  </si>
+  <si>
+    <t>等待回复</t>
+  </si>
+  <si>
+    <t>WaitOrder</t>
+  </si>
+  <si>
+    <t>等待上菜</t>
+  </si>
+  <si>
+    <t>Eating</t>
+  </si>
+  <si>
+    <t>吃法</t>
+  </si>
+  <si>
+    <t>Thinking</t>
+  </si>
+  <si>
+    <t>思考</t>
   </si>
   <si>
     <t>Comment</t>
   </si>
   <si>
     <t>评论</t>
-  </si>
-  <si>
-    <t>Omakase</t>
-  </si>
-  <si>
-    <t>模糊订单</t>
-  </si>
-  <si>
-    <t>HybridOrder</t>
-  </si>
-  <si>
-    <t>模棱两可</t>
-  </si>
-  <si>
-    <t>item.itemType</t>
-  </si>
-  <si>
-    <t>FoodMaterial</t>
-  </si>
-  <si>
-    <t>食材</t>
-  </si>
-  <si>
-    <t>Receipt</t>
-  </si>
-  <si>
-    <t>菜谱</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>货币</t>
-  </si>
-  <si>
-    <t>food.materialType</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>肉类</t>
-  </si>
-  <si>
-    <t>Seafood</t>
-  </si>
-  <si>
-    <t>海鲜</t>
-  </si>
-  <si>
-    <t>Vegetable</t>
-  </si>
-  <si>
-    <t>蔬菜</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>其它</t>
-  </si>
-  <si>
-    <t>food.cookTools</t>
-  </si>
-  <si>
-    <t>Fry</t>
-  </si>
-  <si>
-    <t>炒锅</t>
-  </si>
-  <si>
-    <t>Boil</t>
-  </si>
-  <si>
-    <t>煮锅</t>
-  </si>
-  <si>
-    <t>Deepfry</t>
-  </si>
-  <si>
-    <t>炸锅</t>
-  </si>
-  <si>
-    <t>Steam</t>
-  </si>
-  <si>
-    <t>蒸笼</t>
-  </si>
-  <si>
-    <t>Barbecue</t>
-  </si>
-  <si>
-    <t>烤架</t>
-  </si>
-  <si>
-    <t>food.cookDifficulty</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>简单</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>普通</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>困难</t>
-  </si>
-  <si>
-    <t>food.flavorTag</t>
-  </si>
-  <si>
-    <t>Rou</t>
-  </si>
-  <si>
-    <t>肉</t>
-  </si>
-  <si>
-    <t>ShuiChan</t>
-  </si>
-  <si>
-    <t>水产</t>
-  </si>
-  <si>
-    <t>Su</t>
-  </si>
-  <si>
-    <t>素</t>
-  </si>
-  <si>
-    <t>ShiHui</t>
-  </si>
-  <si>
-    <t>实惠</t>
-  </si>
-  <si>
-    <t>AngGui</t>
-  </si>
-  <si>
-    <t>昂贵</t>
-  </si>
-  <si>
-    <t>JiaChang</t>
-  </si>
-  <si>
-    <t>家常</t>
-  </si>
-  <si>
-    <t>LiangCai</t>
-  </si>
-  <si>
-    <t>凉菜</t>
-  </si>
-  <si>
-    <t>LuZhiPing</t>
-  </si>
-  <si>
-    <t>卤制品</t>
-  </si>
-  <si>
-    <t>HunSu</t>
-  </si>
-  <si>
-    <t>荤素搭配</t>
-  </si>
-  <si>
-    <t>YeWei</t>
-  </si>
-  <si>
-    <t>野味</t>
-  </si>
-  <si>
-    <t>XiaoChao</t>
-  </si>
-  <si>
-    <t>小炒</t>
-  </si>
-  <si>
-    <t>ShaoKao</t>
-  </si>
-  <si>
-    <t>烧烤</t>
-  </si>
-  <si>
-    <t>ZhongYou</t>
-  </si>
-  <si>
-    <t>重油</t>
-  </si>
-  <si>
-    <t>TangGeng</t>
-  </si>
-  <si>
-    <t>汤羹</t>
-  </si>
-  <si>
-    <t>ReQi</t>
-  </si>
-  <si>
-    <t>热气</t>
-  </si>
-  <si>
-    <t>QingDan</t>
-  </si>
-  <si>
-    <t>清淡</t>
-  </si>
-  <si>
-    <t>Suan</t>
-  </si>
-  <si>
-    <t>酸</t>
-  </si>
-  <si>
-    <t>Tian</t>
-  </si>
-  <si>
-    <t>甜</t>
-  </si>
-  <si>
-    <t>Ku</t>
-  </si>
-  <si>
-    <t>苦</t>
-  </si>
-  <si>
-    <t>La</t>
-  </si>
-  <si>
-    <t>辣</t>
-  </si>
-  <si>
-    <t>XianWei</t>
-  </si>
-  <si>
-    <t>咸</t>
-  </si>
-  <si>
-    <t>Xian</t>
-  </si>
-  <si>
-    <t>鲜</t>
-  </si>
-  <si>
-    <t>Chou</t>
-  </si>
-  <si>
-    <t>臭</t>
-  </si>
-  <si>
-    <t>BaoFu</t>
-  </si>
-  <si>
-    <t>饱腹</t>
-  </si>
-  <si>
-    <t>XiaoQiao</t>
-  </si>
-  <si>
-    <t>小巧</t>
-  </si>
-  <si>
-    <t>QingLiang</t>
-  </si>
-  <si>
-    <t>清凉</t>
-  </si>
-  <si>
-    <t>NuanWei</t>
-  </si>
-  <si>
-    <t>暖胃</t>
-  </si>
-  <si>
-    <t>TangZui</t>
-  </si>
-  <si>
-    <t>烫嘴</t>
-  </si>
-  <si>
-    <t>BingShuang</t>
-  </si>
-  <si>
-    <t>冰爽</t>
-  </si>
-  <si>
-    <t>XiangSu</t>
-  </si>
-  <si>
-    <t>香酥</t>
-  </si>
-  <si>
-    <t>JianFei</t>
-  </si>
-  <si>
-    <t>减肥</t>
-  </si>
-  <si>
-    <t>Nen</t>
-  </si>
-  <si>
-    <t>嫩</t>
-  </si>
-  <si>
-    <t>Lao</t>
-  </si>
-  <si>
-    <t>老</t>
-  </si>
-  <si>
-    <t>RuanLan</t>
-  </si>
-  <si>
-    <t>软烂</t>
-  </si>
-  <si>
-    <t>KaiWei</t>
-  </si>
-  <si>
-    <t>开胃</t>
-  </si>
-  <si>
-    <t>food.qteTag</t>
-  </si>
-  <si>
-    <t>Salt</t>
-  </si>
-  <si>
-    <t>加盐</t>
-  </si>
-  <si>
-    <t>Vinegar</t>
-  </si>
-  <si>
-    <t>加醋</t>
-  </si>
-  <si>
-    <t>Sugar</t>
-  </si>
-  <si>
-    <t>加糖</t>
-  </si>
-  <si>
-    <t>Spicy</t>
-  </si>
-  <si>
-    <t>加辣</t>
-  </si>
-  <si>
-    <t>character.behaviour</t>
-  </si>
-  <si>
-    <t>Enter</t>
-  </si>
-  <si>
-    <t>进入</t>
-  </si>
-  <si>
-    <t>点餐</t>
-  </si>
-  <si>
-    <t>OrderMeal</t>
-  </si>
-  <si>
-    <t>点菜</t>
-  </si>
-  <si>
-    <t>OrderDrink</t>
-  </si>
-  <si>
-    <t>点饮料</t>
-  </si>
-  <si>
-    <t>闲聊</t>
-  </si>
-  <si>
-    <t>Leave</t>
-  </si>
-  <si>
-    <t>离开</t>
-  </si>
-  <si>
-    <t>WaitReply</t>
-  </si>
-  <si>
-    <t>等待回复</t>
-  </si>
-  <si>
-    <t>WaitOrder</t>
-  </si>
-  <si>
-    <t>等待上菜</t>
-  </si>
-  <si>
-    <t>Eating</t>
-  </si>
-  <si>
-    <t>吃法</t>
-  </si>
-  <si>
-    <t>Thinking</t>
-  </si>
-  <si>
-    <t>思考</t>
   </si>
 </sst>
 </file>
@@ -800,7 +821,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -858,12 +879,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,7 +1210,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1219,16 +1234,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1237,89 +1252,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1369,9 +1384,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1697,10 +1709,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="O84" sqref="O84"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1711,7 +1723,7 @@
     <col min="4" max="4" width="14.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.4166666666667" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.1416666666667" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.125" style="2" customWidth="1"/>
     <col min="10" max="10" width="15.125" style="2" customWidth="1"/>
@@ -2215,50 +2227,50 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10" t="s">
+      <c r="H27" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="I27" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I27" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10" t="s">
+      <c r="H28" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="I28" s="10">
-        <v>2</v>
+      <c r="I28" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="B29" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" s="10" t="b">
+        <v>1</v>
+      </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10" t="s">
@@ -2268,54 +2280,54 @@
         <v>74</v>
       </c>
       <c r="I29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31" s="10">
         <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I30" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I31" s="11">
-        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+      <c r="B32" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11" t="s">
@@ -2325,7 +2337,7 @@
         <v>81</v>
       </c>
       <c r="I32" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2342,54 +2354,54 @@
         <v>83</v>
       </c>
       <c r="I33" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I35" s="11">
         <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D34" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I34" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="I35" s="12">
-        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
+      <c r="B36" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="12" t="b">
+        <v>1</v>
+      </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12" t="s">
@@ -2399,7 +2411,7 @@
         <v>90</v>
       </c>
       <c r="I36" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2409,14 +2421,14 @@
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
-      <c r="G37" s="12" t="s">
+      <c r="G37" s="13" t="s">
         <v>91</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>92</v>
       </c>
       <c r="I37" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2433,54 +2445,54 @@
         <v>94</v>
       </c>
       <c r="I38" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I39" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I40" s="12">
         <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D39" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I39" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H40" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="I40" s="14">
-        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
+      <c r="B41" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="14" t="b">
+        <v>1</v>
+      </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14" t="s">
@@ -2490,54 +2502,54 @@
         <v>101</v>
       </c>
       <c r="I41" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I42" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I43" s="14">
         <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D42" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="I42" s="10">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="I43" s="10">
-        <v>1002</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
+      <c r="B44" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="10" t="b">
+        <v>1</v>
+      </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10" t="s">
@@ -2547,7 +2559,7 @@
         <v>108</v>
       </c>
       <c r="I44" s="10">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2564,7 +2576,7 @@
         <v>110</v>
       </c>
       <c r="I45" s="10">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2581,7 +2593,7 @@
         <v>112</v>
       </c>
       <c r="I46" s="10">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2598,7 +2610,7 @@
         <v>114</v>
       </c>
       <c r="I47" s="10">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2615,7 +2627,7 @@
         <v>116</v>
       </c>
       <c r="I48" s="10">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2632,7 +2644,7 @@
         <v>118</v>
       </c>
       <c r="I49" s="10">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2649,7 +2661,7 @@
         <v>120</v>
       </c>
       <c r="I50" s="10">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2666,7 +2678,7 @@
         <v>122</v>
       </c>
       <c r="I51" s="10">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2683,7 +2695,7 @@
         <v>124</v>
       </c>
       <c r="I52" s="10">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2700,7 +2712,7 @@
         <v>126</v>
       </c>
       <c r="I53" s="10">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2717,7 +2729,7 @@
         <v>128</v>
       </c>
       <c r="I54" s="10">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2734,7 +2746,7 @@
         <v>130</v>
       </c>
       <c r="I55" s="10">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2751,7 +2763,7 @@
         <v>132</v>
       </c>
       <c r="I56" s="10">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2768,7 +2780,7 @@
         <v>134</v>
       </c>
       <c r="I57" s="10">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2785,7 +2797,7 @@
         <v>136</v>
       </c>
       <c r="I58" s="10">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2802,7 +2814,7 @@
         <v>138</v>
       </c>
       <c r="I59" s="10">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2819,7 +2831,7 @@
         <v>140</v>
       </c>
       <c r="I60" s="10">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2836,7 +2848,7 @@
         <v>142</v>
       </c>
       <c r="I61" s="10">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2853,7 +2865,7 @@
         <v>144</v>
       </c>
       <c r="I62" s="10">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2870,7 +2882,7 @@
         <v>146</v>
       </c>
       <c r="I63" s="10">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2887,7 +2899,7 @@
         <v>148</v>
       </c>
       <c r="I64" s="10">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2904,7 +2916,7 @@
         <v>150</v>
       </c>
       <c r="I65" s="10">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2921,7 +2933,7 @@
         <v>152</v>
       </c>
       <c r="I66" s="10">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2938,7 +2950,7 @@
         <v>154</v>
       </c>
       <c r="I67" s="10">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2955,7 +2967,7 @@
         <v>156</v>
       </c>
       <c r="I68" s="10">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2972,7 +2984,7 @@
         <v>158</v>
       </c>
       <c r="I69" s="10">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2989,7 +3001,7 @@
         <v>160</v>
       </c>
       <c r="I70" s="10">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3006,7 +3018,7 @@
         <v>162</v>
       </c>
       <c r="I71" s="10">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3023,7 +3035,7 @@
         <v>164</v>
       </c>
       <c r="I72" s="10">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3040,7 +3052,7 @@
         <v>166</v>
       </c>
       <c r="I73" s="10">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3057,7 +3069,7 @@
         <v>168</v>
       </c>
       <c r="I74" s="10">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3074,7 +3086,7 @@
         <v>170</v>
       </c>
       <c r="I75" s="10">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3091,48 +3103,48 @@
         <v>172</v>
       </c>
       <c r="I76" s="10">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="I77" s="10">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="I78" s="10">
         <v>1035</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="H77" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="I77" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="H78" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="I78" s="16">
-        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
+      <c r="B79" s="15" t="s">
+        <v>177</v>
+      </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
@@ -3140,11 +3152,11 @@
       <c r="G79" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="H79" s="16" t="s">
+      <c r="H79" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="I79" s="15">
-        <v>3</v>
+      <c r="I79" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3157,64 +3169,64 @@
       <c r="G80" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="H80" s="16" t="s">
+      <c r="H80" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="I80" s="15">
+      <c r="I80" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="H81" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="I81" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="H82" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="I82" s="15">
         <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H81" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I81" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H82" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="I82" s="10">
-        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
+      <c r="B83" s="10" t="s">
+        <v>186</v>
+      </c>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
       <c r="G83" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I83" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3225,13 +3237,13 @@
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
       <c r="G84" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I84" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3242,13 +3254,13 @@
       <c r="E85" s="10"/>
       <c r="F85" s="10"/>
       <c r="G85" s="10" t="s">
-        <v>56</v>
+        <v>191</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I85" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3259,13 +3271,13 @@
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
       <c r="G86" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I86" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3276,13 +3288,13 @@
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
       <c r="G87" s="10" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I87" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3292,48 +3304,48 @@
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
-      <c r="G88" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="H88" s="17" t="s">
+      <c r="G88" s="10" t="s">
         <v>196</v>
       </c>
+      <c r="H88" s="10" t="s">
+        <v>197</v>
+      </c>
       <c r="I88" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="I89" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="I90" s="10">
         <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="17"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="H89" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="I89" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="17"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="H90" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="I90" s="10">
-        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3344,12 +3356,46 @@
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
       <c r="G91" s="10" t="s">
-        <v>62</v>
+        <v>202</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="I91" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="I92" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="I93" s="10">
         <v>11</v>
       </c>
     </row>

--- a/DataConfig/Datas/__enums__.xlsx
+++ b/DataConfig/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1711,8 +1711,8 @@
   <sheetPr/>
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/DataConfig/Datas/__enums__.xlsx
+++ b/DataConfig/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="210">
   <si>
     <t>##var</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>全部</t>
+  </si>
+  <si>
+    <t>IllegelDay</t>
+  </si>
+  <si>
+    <t>周八</t>
   </si>
   <si>
     <t>common.Weather</t>
@@ -1709,10 +1715,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1953,34 +1959,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:9">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8" t="s">
+    <row r="12" s="1" customFormat="1" spans="1:9">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="8">
-        <v>1</v>
+      <c r="I12" s="6">
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:9">
       <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8" t="b">
+        <v>1</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8" t="s">
@@ -1990,7 +1996,7 @@
         <v>39</v>
       </c>
       <c r="I13" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:9">
@@ -2007,7 +2013,7 @@
         <v>41</v>
       </c>
       <c r="I14" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:9">
@@ -2024,7 +2030,7 @@
         <v>43</v>
       </c>
       <c r="I15" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:9">
@@ -2041,37 +2047,37 @@
         <v>45</v>
       </c>
       <c r="I16" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:9">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="8">
         <v>5</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:9">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="9">
-        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:9">
       <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9" t="s">
@@ -2081,7 +2087,7 @@
         <v>50</v>
       </c>
       <c r="I18" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:9">
@@ -2098,7 +2104,7 @@
         <v>52</v>
       </c>
       <c r="I19" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:9">
@@ -2115,37 +2121,37 @@
         <v>54</v>
       </c>
       <c r="I20" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:9">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="9">
         <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="8">
-        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8" t="b">
+        <v>1</v>
+      </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8" t="s">
@@ -2155,7 +2161,7 @@
         <v>59</v>
       </c>
       <c r="I22" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2172,7 +2178,7 @@
         <v>61</v>
       </c>
       <c r="I23" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2189,7 +2195,7 @@
         <v>63</v>
       </c>
       <c r="I24" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2206,7 +2212,7 @@
         <v>65</v>
       </c>
       <c r="I25" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2223,7 +2229,7 @@
         <v>67</v>
       </c>
       <c r="I26" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2240,7 +2246,7 @@
         <v>69</v>
       </c>
       <c r="I27" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2257,37 +2263,37 @@
         <v>71</v>
       </c>
       <c r="I28" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29" s="8">
         <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I29" s="10">
-        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+      <c r="B30" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="10" t="b">
+        <v>1</v>
+      </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10" t="s">
@@ -2297,7 +2303,7 @@
         <v>76</v>
       </c>
       <c r="I30" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2314,37 +2320,37 @@
         <v>78</v>
       </c>
       <c r="I31" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32" s="10">
         <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D32" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I32" s="11">
-        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+      <c r="B33" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11" t="s">
@@ -2354,7 +2360,7 @@
         <v>83</v>
       </c>
       <c r="I33" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2371,7 +2377,7 @@
         <v>85</v>
       </c>
       <c r="I34" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2388,47 +2394,47 @@
         <v>87</v>
       </c>
       <c r="I35" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I36" s="11">
         <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D36" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="I36" s="12">
-        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
+      <c r="B37" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="12" t="b">
+        <v>1</v>
+      </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="12" t="s">
         <v>91</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>92</v>
       </c>
       <c r="I37" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2438,14 +2444,14 @@
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
-      <c r="G38" s="12" t="s">
+      <c r="G38" s="13" t="s">
         <v>93</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>94</v>
       </c>
       <c r="I38" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2462,7 +2468,7 @@
         <v>96</v>
       </c>
       <c r="I39" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2479,37 +2485,37 @@
         <v>98</v>
       </c>
       <c r="I40" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I41" s="12">
         <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D41" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="I41" s="14">
-        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
+      <c r="B42" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="14" t="b">
+        <v>1</v>
+      </c>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14" t="s">
@@ -2519,7 +2525,7 @@
         <v>103</v>
       </c>
       <c r="I42" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2536,37 +2542,37 @@
         <v>105</v>
       </c>
       <c r="I43" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I44" s="14">
         <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D44" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="I44" s="10">
-        <v>1001</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
+      <c r="B45" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="10" t="b">
+        <v>1</v>
+      </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10" t="s">
@@ -2576,7 +2582,7 @@
         <v>110</v>
       </c>
       <c r="I45" s="10">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2593,7 +2599,7 @@
         <v>112</v>
       </c>
       <c r="I46" s="10">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2610,7 +2616,7 @@
         <v>114</v>
       </c>
       <c r="I47" s="10">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2627,7 +2633,7 @@
         <v>116</v>
       </c>
       <c r="I48" s="10">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2644,7 +2650,7 @@
         <v>118</v>
       </c>
       <c r="I49" s="10">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2661,7 +2667,7 @@
         <v>120</v>
       </c>
       <c r="I50" s="10">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2678,7 +2684,7 @@
         <v>122</v>
       </c>
       <c r="I51" s="10">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2695,7 +2701,7 @@
         <v>124</v>
       </c>
       <c r="I52" s="10">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2712,7 +2718,7 @@
         <v>126</v>
       </c>
       <c r="I53" s="10">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2729,7 +2735,7 @@
         <v>128</v>
       </c>
       <c r="I54" s="10">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2746,7 +2752,7 @@
         <v>130</v>
       </c>
       <c r="I55" s="10">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2763,7 +2769,7 @@
         <v>132</v>
       </c>
       <c r="I56" s="10">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2780,7 +2786,7 @@
         <v>134</v>
       </c>
       <c r="I57" s="10">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2797,7 +2803,7 @@
         <v>136</v>
       </c>
       <c r="I58" s="10">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2814,7 +2820,7 @@
         <v>138</v>
       </c>
       <c r="I59" s="10">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2831,7 +2837,7 @@
         <v>140</v>
       </c>
       <c r="I60" s="10">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2848,7 +2854,7 @@
         <v>142</v>
       </c>
       <c r="I61" s="10">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2865,7 +2871,7 @@
         <v>144</v>
       </c>
       <c r="I62" s="10">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2882,7 +2888,7 @@
         <v>146</v>
       </c>
       <c r="I63" s="10">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2899,7 +2905,7 @@
         <v>148</v>
       </c>
       <c r="I64" s="10">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2916,7 +2922,7 @@
         <v>150</v>
       </c>
       <c r="I65" s="10">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2933,7 +2939,7 @@
         <v>152</v>
       </c>
       <c r="I66" s="10">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2950,7 +2956,7 @@
         <v>154</v>
       </c>
       <c r="I67" s="10">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2967,7 +2973,7 @@
         <v>156</v>
       </c>
       <c r="I68" s="10">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2984,7 +2990,7 @@
         <v>158</v>
       </c>
       <c r="I69" s="10">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3001,7 +3007,7 @@
         <v>160</v>
       </c>
       <c r="I70" s="10">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3018,7 +3024,7 @@
         <v>162</v>
       </c>
       <c r="I71" s="10">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3035,7 +3041,7 @@
         <v>164</v>
       </c>
       <c r="I72" s="10">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3052,7 +3058,7 @@
         <v>166</v>
       </c>
       <c r="I73" s="10">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3069,7 +3075,7 @@
         <v>168</v>
       </c>
       <c r="I74" s="10">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3086,7 +3092,7 @@
         <v>170</v>
       </c>
       <c r="I75" s="10">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3103,7 +3109,7 @@
         <v>172</v>
       </c>
       <c r="I76" s="10">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3120,7 +3126,7 @@
         <v>174</v>
       </c>
       <c r="I77" s="10">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3137,31 +3143,31 @@
         <v>176</v>
       </c>
       <c r="I78" s="10">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="I79" s="10">
         <v>1035</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H79" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="I79" s="16">
-        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="15"/>
-      <c r="B80" s="15"/>
+      <c r="B80" s="15" t="s">
+        <v>179</v>
+      </c>
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
@@ -3173,7 +3179,7 @@
         <v>181</v>
       </c>
       <c r="I80" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3186,11 +3192,11 @@
       <c r="G81" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="H81" s="16" t="s">
+      <c r="H81" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="I81" s="15">
-        <v>3</v>
+      <c r="I81" s="16">
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3207,31 +3213,31 @@
         <v>185</v>
       </c>
       <c r="I82" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="15"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H83" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="I83" s="15">
         <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="H83" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="I83" s="10">
-        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
+      <c r="B84" s="10" t="s">
+        <v>188</v>
+      </c>
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
@@ -3243,7 +3249,7 @@
         <v>190</v>
       </c>
       <c r="I84" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3260,7 +3266,7 @@
         <v>192</v>
       </c>
       <c r="I85" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3277,7 +3283,7 @@
         <v>194</v>
       </c>
       <c r="I86" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3288,13 +3294,13 @@
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
       <c r="G87" s="10" t="s">
-        <v>58</v>
+        <v>195</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I87" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3305,13 +3311,13 @@
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
       <c r="G88" s="10" t="s">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="H88" s="10" t="s">
         <v>197</v>
       </c>
       <c r="I88" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3328,7 +3334,7 @@
         <v>199</v>
       </c>
       <c r="I89" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3345,7 +3351,7 @@
         <v>201</v>
       </c>
       <c r="I90" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3362,7 +3368,7 @@
         <v>203</v>
       </c>
       <c r="I91" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3379,7 +3385,7 @@
         <v>205</v>
       </c>
       <c r="I92" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3396,6 +3402,23 @@
         <v>207</v>
       </c>
       <c r="I93" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="I94" s="10">
         <v>11</v>
       </c>
     </row>

--- a/DataConfig/Datas/__enums__.xlsx
+++ b/DataConfig/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="31410" windowHeight="17055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="212">
   <si>
     <t>##var</t>
   </si>
@@ -578,6 +578,12 @@
   </si>
   <si>
     <t>加辣</t>
+  </si>
+  <si>
+    <t>Sour</t>
+  </si>
+  <si>
+    <t>加酱油</t>
   </si>
   <si>
     <t>character.behaviour</t>
@@ -1715,10 +1721,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3234,27 +3240,27 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10" t="s">
+      <c r="A84" s="15"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10" t="s">
+      <c r="H84" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="H84" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="I84" s="10">
-        <v>1</v>
+      <c r="I84" s="15">
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
+      <c r="B85" s="10" t="s">
+        <v>190</v>
+      </c>
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
       <c r="E85" s="10"/>
@@ -3266,7 +3272,7 @@
         <v>192</v>
       </c>
       <c r="I85" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3283,7 +3289,7 @@
         <v>194</v>
       </c>
       <c r="I86" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3300,7 +3306,7 @@
         <v>196</v>
       </c>
       <c r="I87" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3311,13 +3317,13 @@
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
       <c r="G88" s="10" t="s">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I88" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3328,13 +3334,13 @@
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
       <c r="G89" s="10" t="s">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="H89" s="10" t="s">
         <v>199</v>
       </c>
       <c r="I89" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3351,7 +3357,7 @@
         <v>201</v>
       </c>
       <c r="I90" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3368,7 +3374,7 @@
         <v>203</v>
       </c>
       <c r="I91" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3385,7 +3391,7 @@
         <v>205</v>
       </c>
       <c r="I92" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3402,7 +3408,7 @@
         <v>207</v>
       </c>
       <c r="I93" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3419,6 +3425,23 @@
         <v>209</v>
       </c>
       <c r="I94" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="I95" s="10">
         <v>11</v>
       </c>
     </row>

--- a/DataConfig/Datas/__enums__.xlsx
+++ b/DataConfig/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31410" windowHeight="17055"/>
+    <workbookView windowWidth="18645" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1723,8 +1723,8 @@
   <sheetPr/>
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="J78" sqref="J78"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/DataConfig/Datas/__enums__.xlsx
+++ b/DataConfig/Datas/__enums__.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18645" windowHeight="12840"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="214">
   <si>
     <t>##var</t>
   </si>
@@ -128,6 +141,12 @@
   </si>
   <si>
     <t>common.Weather</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>未初始化</t>
   </si>
   <si>
     <t>Sunshine</t>
@@ -655,7 +674,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1721,10 +1740,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2002,7 +2021,7 @@
         <v>39</v>
       </c>
       <c r="I13" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:9">
@@ -2019,7 +2038,7 @@
         <v>41</v>
       </c>
       <c r="I14" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:9">
@@ -2036,7 +2055,7 @@
         <v>43</v>
       </c>
       <c r="I15" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:9">
@@ -2053,7 +2072,7 @@
         <v>45</v>
       </c>
       <c r="I16" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:9">
@@ -2070,37 +2089,37 @@
         <v>47</v>
       </c>
       <c r="I17" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:9">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="8">
         <v>5</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:9">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="9">
-        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:9">
       <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9" t="s">
@@ -2110,7 +2129,7 @@
         <v>52</v>
       </c>
       <c r="I19" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:9">
@@ -2127,7 +2146,7 @@
         <v>54</v>
       </c>
       <c r="I20" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:9">
@@ -2144,37 +2163,37 @@
         <v>56</v>
       </c>
       <c r="I21" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:9">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="9">
         <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="8">
-        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="B23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8" t="b">
+        <v>1</v>
+      </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8" t="s">
@@ -2184,7 +2203,7 @@
         <v>61</v>
       </c>
       <c r="I23" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2201,7 +2220,7 @@
         <v>63</v>
       </c>
       <c r="I24" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2218,7 +2237,7 @@
         <v>65</v>
       </c>
       <c r="I25" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2235,7 +2254,7 @@
         <v>67</v>
       </c>
       <c r="I26" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2252,7 +2271,7 @@
         <v>69</v>
       </c>
       <c r="I27" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2269,7 +2288,7 @@
         <v>71</v>
       </c>
       <c r="I28" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2286,37 +2305,37 @@
         <v>73</v>
       </c>
       <c r="I29" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I30" s="8">
         <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I30" s="10">
-        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="B31" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" s="10" t="b">
+        <v>1</v>
+      </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10" t="s">
@@ -2326,7 +2345,7 @@
         <v>78</v>
       </c>
       <c r="I31" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2343,37 +2362,37 @@
         <v>80</v>
       </c>
       <c r="I32" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33" s="10">
         <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I33" s="11">
-        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="B34" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11" t="s">
@@ -2383,7 +2402,7 @@
         <v>85</v>
       </c>
       <c r="I34" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2400,7 +2419,7 @@
         <v>87</v>
       </c>
       <c r="I35" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2417,47 +2436,47 @@
         <v>89</v>
       </c>
       <c r="I36" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I37" s="11">
         <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D37" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="I37" s="12">
-        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
+      <c r="B38" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" s="12" t="b">
+        <v>1</v>
+      </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="12" t="s">
         <v>93</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>94</v>
       </c>
       <c r="I38" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2467,14 +2486,14 @@
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
-      <c r="G39" s="12" t="s">
+      <c r="G39" s="13" t="s">
         <v>95</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>96</v>
       </c>
       <c r="I39" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2491,7 +2510,7 @@
         <v>98</v>
       </c>
       <c r="I40" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2508,37 +2527,37 @@
         <v>100</v>
       </c>
       <c r="I41" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I42" s="12">
         <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D42" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I42" s="14">
-        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
+      <c r="B43" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" s="14" t="b">
+        <v>1</v>
+      </c>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14" t="s">
@@ -2548,7 +2567,7 @@
         <v>105</v>
       </c>
       <c r="I43" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2565,37 +2584,37 @@
         <v>107</v>
       </c>
       <c r="I44" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I45" s="14">
         <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C45" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D45" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="I45" s="10">
-        <v>1001</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
+      <c r="B46" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="10" t="b">
+        <v>1</v>
+      </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10" t="s">
@@ -2605,7 +2624,7 @@
         <v>112</v>
       </c>
       <c r="I46" s="10">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2622,7 +2641,7 @@
         <v>114</v>
       </c>
       <c r="I47" s="10">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2639,7 +2658,7 @@
         <v>116</v>
       </c>
       <c r="I48" s="10">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2656,7 +2675,7 @@
         <v>118</v>
       </c>
       <c r="I49" s="10">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2673,7 +2692,7 @@
         <v>120</v>
       </c>
       <c r="I50" s="10">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2690,7 +2709,7 @@
         <v>122</v>
       </c>
       <c r="I51" s="10">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2707,7 +2726,7 @@
         <v>124</v>
       </c>
       <c r="I52" s="10">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2724,7 +2743,7 @@
         <v>126</v>
       </c>
       <c r="I53" s="10">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2741,7 +2760,7 @@
         <v>128</v>
       </c>
       <c r="I54" s="10">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2758,7 +2777,7 @@
         <v>130</v>
       </c>
       <c r="I55" s="10">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2775,7 +2794,7 @@
         <v>132</v>
       </c>
       <c r="I56" s="10">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2792,7 +2811,7 @@
         <v>134</v>
       </c>
       <c r="I57" s="10">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2809,7 +2828,7 @@
         <v>136</v>
       </c>
       <c r="I58" s="10">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2826,7 +2845,7 @@
         <v>138</v>
       </c>
       <c r="I59" s="10">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2843,7 +2862,7 @@
         <v>140</v>
       </c>
       <c r="I60" s="10">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2860,7 +2879,7 @@
         <v>142</v>
       </c>
       <c r="I61" s="10">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2877,7 +2896,7 @@
         <v>144</v>
       </c>
       <c r="I62" s="10">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2894,7 +2913,7 @@
         <v>146</v>
       </c>
       <c r="I63" s="10">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2911,7 +2930,7 @@
         <v>148</v>
       </c>
       <c r="I64" s="10">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2928,7 +2947,7 @@
         <v>150</v>
       </c>
       <c r="I65" s="10">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2945,7 +2964,7 @@
         <v>152</v>
       </c>
       <c r="I66" s="10">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2962,7 +2981,7 @@
         <v>154</v>
       </c>
       <c r="I67" s="10">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2979,7 +2998,7 @@
         <v>156</v>
       </c>
       <c r="I68" s="10">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2996,7 +3015,7 @@
         <v>158</v>
       </c>
       <c r="I69" s="10">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3013,7 +3032,7 @@
         <v>160</v>
       </c>
       <c r="I70" s="10">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3030,7 +3049,7 @@
         <v>162</v>
       </c>
       <c r="I71" s="10">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3047,7 +3066,7 @@
         <v>164</v>
       </c>
       <c r="I72" s="10">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3064,7 +3083,7 @@
         <v>166</v>
       </c>
       <c r="I73" s="10">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3081,7 +3100,7 @@
         <v>168</v>
       </c>
       <c r="I74" s="10">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3098,7 +3117,7 @@
         <v>170</v>
       </c>
       <c r="I75" s="10">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3115,7 +3134,7 @@
         <v>172</v>
       </c>
       <c r="I76" s="10">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3132,7 +3151,7 @@
         <v>174</v>
       </c>
       <c r="I77" s="10">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3149,7 +3168,7 @@
         <v>176</v>
       </c>
       <c r="I78" s="10">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3166,31 +3185,31 @@
         <v>178</v>
       </c>
       <c r="I79" s="10">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="I80" s="10">
         <v>1035</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="15"/>
-      <c r="B80" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="H80" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="I80" s="16">
-        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="15"/>
-      <c r="B81" s="15"/>
+      <c r="B81" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
@@ -3202,7 +3221,7 @@
         <v>183</v>
       </c>
       <c r="I81" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3215,11 +3234,11 @@
       <c r="G82" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="H82" s="16" t="s">
+      <c r="H82" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="I82" s="15">
-        <v>3</v>
+      <c r="I82" s="16">
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3236,7 +3255,7 @@
         <v>187</v>
       </c>
       <c r="I83" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3253,31 +3272,31 @@
         <v>189</v>
       </c>
       <c r="I84" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="H85" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="I85" s="15">
         <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="H85" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="I85" s="10">
-        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="10"/>
-      <c r="B86" s="10"/>
+      <c r="B86" s="10" t="s">
+        <v>192</v>
+      </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
@@ -3289,7 +3308,7 @@
         <v>194</v>
       </c>
       <c r="I86" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3306,7 +3325,7 @@
         <v>196</v>
       </c>
       <c r="I87" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3323,7 +3342,7 @@
         <v>198</v>
       </c>
       <c r="I88" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3334,13 +3353,13 @@
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
       <c r="G89" s="10" t="s">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I89" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3351,13 +3370,13 @@
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
       <c r="G90" s="10" t="s">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="H90" s="10" t="s">
         <v>201</v>
       </c>
       <c r="I90" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3374,7 +3393,7 @@
         <v>203</v>
       </c>
       <c r="I91" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3391,7 +3410,7 @@
         <v>205</v>
       </c>
       <c r="I92" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3408,7 +3427,7 @@
         <v>207</v>
       </c>
       <c r="I93" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3425,7 +3444,7 @@
         <v>209</v>
       </c>
       <c r="I94" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3442,6 +3461,23 @@
         <v>211</v>
       </c>
       <c r="I95" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="I96" s="10">
         <v>11</v>
       </c>
     </row>

--- a/DataConfig/Datas/__enums__.xlsx
+++ b/DataConfig/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="20850" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="216">
   <si>
     <t>##var</t>
   </si>
@@ -255,6 +255,12 @@
   </si>
   <si>
     <t>模棱两可评论</t>
+  </si>
+  <si>
+    <t>AfterMeal</t>
+  </si>
+  <si>
+    <t>饭后发言</t>
   </si>
   <si>
     <t>item.itemType</t>
@@ -1740,10 +1746,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2326,33 +2332,33 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D31" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10" t="s">
+      <c r="H31" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H31" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I31" s="10">
-        <v>1</v>
+      <c r="I31" s="8">
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+      <c r="B32" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" s="10" t="b">
+        <v>1</v>
+      </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10" t="s">
@@ -2362,7 +2368,7 @@
         <v>80</v>
       </c>
       <c r="I32" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2379,37 +2385,37 @@
         <v>82</v>
       </c>
       <c r="I33" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I34" s="10">
         <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D34" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="I34" s="11">
-        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="B35" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11" t="s">
@@ -2419,7 +2425,7 @@
         <v>87</v>
       </c>
       <c r="I35" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2436,7 +2442,7 @@
         <v>89</v>
       </c>
       <c r="I36" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2453,47 +2459,47 @@
         <v>91</v>
       </c>
       <c r="I37" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I38" s="11">
         <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="I38" s="12">
-        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
+      <c r="B39" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="12" t="b">
+        <v>1</v>
+      </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="12" t="s">
         <v>95</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>96</v>
       </c>
       <c r="I39" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2503,14 +2509,14 @@
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="13" t="s">
         <v>97</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>98</v>
       </c>
       <c r="I40" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2527,7 +2533,7 @@
         <v>100</v>
       </c>
       <c r="I41" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2544,37 +2550,37 @@
         <v>102</v>
       </c>
       <c r="I42" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I43" s="12">
         <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="I43" s="14">
-        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
+      <c r="B44" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="14" t="b">
+        <v>1</v>
+      </c>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c r="G44" s="14" t="s">
@@ -2584,7 +2590,7 @@
         <v>107</v>
       </c>
       <c r="I44" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2601,37 +2607,37 @@
         <v>109</v>
       </c>
       <c r="I45" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I46" s="14">
         <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="I46" s="10">
-        <v>1001</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
+      <c r="B47" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="10" t="b">
+        <v>1</v>
+      </c>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10" t="s">
@@ -2641,7 +2647,7 @@
         <v>114</v>
       </c>
       <c r="I47" s="10">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2658,7 +2664,7 @@
         <v>116</v>
       </c>
       <c r="I48" s="10">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2675,7 +2681,7 @@
         <v>118</v>
       </c>
       <c r="I49" s="10">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2692,7 +2698,7 @@
         <v>120</v>
       </c>
       <c r="I50" s="10">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2709,7 +2715,7 @@
         <v>122</v>
       </c>
       <c r="I51" s="10">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2726,7 +2732,7 @@
         <v>124</v>
       </c>
       <c r="I52" s="10">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2743,7 +2749,7 @@
         <v>126</v>
       </c>
       <c r="I53" s="10">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2760,7 +2766,7 @@
         <v>128</v>
       </c>
       <c r="I54" s="10">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2777,7 +2783,7 @@
         <v>130</v>
       </c>
       <c r="I55" s="10">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2794,7 +2800,7 @@
         <v>132</v>
       </c>
       <c r="I56" s="10">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2811,7 +2817,7 @@
         <v>134</v>
       </c>
       <c r="I57" s="10">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2828,7 +2834,7 @@
         <v>136</v>
       </c>
       <c r="I58" s="10">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2845,7 +2851,7 @@
         <v>138</v>
       </c>
       <c r="I59" s="10">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2862,7 +2868,7 @@
         <v>140</v>
       </c>
       <c r="I60" s="10">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2879,7 +2885,7 @@
         <v>142</v>
       </c>
       <c r="I61" s="10">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2896,7 +2902,7 @@
         <v>144</v>
       </c>
       <c r="I62" s="10">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2913,7 +2919,7 @@
         <v>146</v>
       </c>
       <c r="I63" s="10">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2930,7 +2936,7 @@
         <v>148</v>
       </c>
       <c r="I64" s="10">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2947,7 +2953,7 @@
         <v>150</v>
       </c>
       <c r="I65" s="10">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2964,7 +2970,7 @@
         <v>152</v>
       </c>
       <c r="I66" s="10">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2981,7 +2987,7 @@
         <v>154</v>
       </c>
       <c r="I67" s="10">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2998,7 +3004,7 @@
         <v>156</v>
       </c>
       <c r="I68" s="10">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3015,7 +3021,7 @@
         <v>158</v>
       </c>
       <c r="I69" s="10">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3032,7 +3038,7 @@
         <v>160</v>
       </c>
       <c r="I70" s="10">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3049,7 +3055,7 @@
         <v>162</v>
       </c>
       <c r="I71" s="10">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3066,7 +3072,7 @@
         <v>164</v>
       </c>
       <c r="I72" s="10">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3083,7 +3089,7 @@
         <v>166</v>
       </c>
       <c r="I73" s="10">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3100,7 +3106,7 @@
         <v>168</v>
       </c>
       <c r="I74" s="10">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3117,7 +3123,7 @@
         <v>170</v>
       </c>
       <c r="I75" s="10">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3134,7 +3140,7 @@
         <v>172</v>
       </c>
       <c r="I76" s="10">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3151,7 +3157,7 @@
         <v>174</v>
       </c>
       <c r="I77" s="10">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3168,7 +3174,7 @@
         <v>176</v>
       </c>
       <c r="I78" s="10">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3185,7 +3191,7 @@
         <v>178</v>
       </c>
       <c r="I79" s="10">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3202,31 +3208,31 @@
         <v>180</v>
       </c>
       <c r="I80" s="10">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I81" s="10">
         <v>1035</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="15"/>
-      <c r="B81" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="H81" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="I81" s="16">
-        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
+      <c r="B82" s="15" t="s">
+        <v>183</v>
+      </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
@@ -3238,7 +3244,7 @@
         <v>185</v>
       </c>
       <c r="I82" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3251,11 +3257,11 @@
       <c r="G83" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="H83" s="16" t="s">
+      <c r="H83" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="I83" s="15">
-        <v>3</v>
+      <c r="I83" s="16">
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3272,7 +3278,7 @@
         <v>189</v>
       </c>
       <c r="I84" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3289,31 +3295,31 @@
         <v>191</v>
       </c>
       <c r="I85" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="15"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="H86" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="I86" s="15">
         <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="10"/>
-      <c r="B86" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="H86" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="I86" s="10">
-        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="10"/>
-      <c r="B87" s="10"/>
+      <c r="B87" s="10" t="s">
+        <v>194</v>
+      </c>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
@@ -3325,7 +3331,7 @@
         <v>196</v>
       </c>
       <c r="I87" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3342,7 +3348,7 @@
         <v>198</v>
       </c>
       <c r="I88" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3359,7 +3365,7 @@
         <v>200</v>
       </c>
       <c r="I89" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3370,13 +3376,13 @@
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
       <c r="G90" s="10" t="s">
-        <v>62</v>
+        <v>201</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I90" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3387,13 +3393,13 @@
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
       <c r="G91" s="10" t="s">
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="H91" s="10" t="s">
         <v>203</v>
       </c>
       <c r="I91" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3410,7 +3416,7 @@
         <v>205</v>
       </c>
       <c r="I92" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3427,7 +3433,7 @@
         <v>207</v>
       </c>
       <c r="I93" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3444,7 +3450,7 @@
         <v>209</v>
       </c>
       <c r="I94" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3461,7 +3467,7 @@
         <v>211</v>
       </c>
       <c r="I95" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3478,6 +3484,23 @@
         <v>213</v>
       </c>
       <c r="I96" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="I97" s="10">
         <v>11</v>
       </c>
     </row>
